--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.02939376501109</v>
+        <v>26.02939376501119</v>
       </c>
       <c r="C2">
-        <v>29.24009814335685</v>
+        <v>29.24009814335687</v>
       </c>
       <c r="D2">
-        <v>8.068205445433168</v>
+        <v>8.068205445433135</v>
       </c>
       <c r="E2">
-        <v>9.134747210577054</v>
+        <v>9.134747210577048</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.78673970765539</v>
+        <v>64.7867397076554</v>
       </c>
       <c r="I2">
-        <v>4.371556757373621</v>
+        <v>4.37155675737359</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.04662393281834</v>
+        <v>17.04662393281837</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86998739502769</v>
+        <v>23.86998739502756</v>
       </c>
       <c r="C3">
-        <v>26.9323067272277</v>
+        <v>26.93230672722741</v>
       </c>
       <c r="D3">
-        <v>7.550478726453165</v>
+        <v>7.550478726453201</v>
       </c>
       <c r="E3">
-        <v>8.593832958505917</v>
+        <v>8.593832958505921</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.49108507054852</v>
+        <v>60.49108507054807</v>
       </c>
       <c r="I3">
-        <v>4.319203551873675</v>
+        <v>4.319203551873741</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.6913788107421</v>
+        <v>15.69137881074196</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.51746885262092</v>
+        <v>22.51746885262095</v>
       </c>
       <c r="C4">
-        <v>25.47917494774843</v>
+        <v>25.4791749477484</v>
       </c>
       <c r="D4">
-        <v>7.231730096224563</v>
+        <v>7.231730096224531</v>
       </c>
       <c r="E4">
-        <v>8.263821448797298</v>
+        <v>8.263821448797289</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.80419312635465</v>
+        <v>57.80419312635494</v>
       </c>
       <c r="I4">
-        <v>4.291662024464869</v>
+        <v>4.291662024464855</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.96214792109611</v>
+        <v>14.96214792109608</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>21.95836597964164</v>
       </c>
       <c r="C5">
-        <v>24.87678250917183</v>
+        <v>24.87678250917156</v>
       </c>
       <c r="D5">
-        <v>7.101474983354879</v>
+        <v>7.101474983354865</v>
       </c>
       <c r="E5">
-        <v>8.129710369094587</v>
+        <v>8.129710369094569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.69538742389106</v>
+        <v>56.69538742389062</v>
       </c>
       <c r="I5">
-        <v>4.281493441482128</v>
+        <v>4.281493441482117</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.6658678989198</v>
+        <v>14.66586789891976</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86501656019735</v>
+        <v>21.86501656019715</v>
       </c>
       <c r="C6">
-        <v>24.7761091952893</v>
+        <v>24.77610919528891</v>
       </c>
       <c r="D6">
-        <v>7.079821578084335</v>
+        <v>7.079821578084321</v>
       </c>
       <c r="E6">
-        <v>8.107460686280515</v>
+        <v>8.10746068628055</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.51039977877534</v>
+        <v>56.51039977877451</v>
       </c>
       <c r="I6">
-        <v>4.279865952468492</v>
+        <v>4.279865952468505</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.61654512351366</v>
+        <v>14.61654512351363</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.50996219258318</v>
+        <v>22.50996219258302</v>
       </c>
       <c r="C7">
-        <v>25.47109361927771</v>
+        <v>25.47109361927755</v>
       </c>
       <c r="D7">
-        <v>7.229975032493615</v>
+        <v>7.229975032493553</v>
       </c>
       <c r="E7">
         <v>8.262011425890019</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.78929713607074</v>
+        <v>57.78929713607018</v>
       </c>
       <c r="I7">
-        <v>4.291520740917202</v>
+        <v>4.291520740917212</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.9581604628642</v>
+        <v>14.95816046286417</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.28951767257799</v>
+        <v>25.28951767257821</v>
       </c>
       <c r="C8">
-        <v>28.4510997210687</v>
+        <v>28.45109972106879</v>
       </c>
       <c r="D8">
-        <v>7.889758024439317</v>
+        <v>7.889758024439235</v>
       </c>
       <c r="E8">
-        <v>8.94767665634358</v>
+        <v>8.947676656343623</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.31478530047359</v>
+        <v>63.31478530047424</v>
       </c>
       <c r="I8">
-        <v>4.352482569166995</v>
+        <v>4.352482569167045</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.58373419359367</v>
+        <v>16.58373419359378</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.60394951305102</v>
+        <v>30.60394951305103</v>
       </c>
       <c r="C9">
-        <v>34.07710678191605</v>
+        <v>34.07710678191628</v>
       </c>
       <c r="D9">
-        <v>9.222626048702756</v>
+        <v>9.222626048702795</v>
       </c>
       <c r="E9">
-        <v>10.35384260767381</v>
+        <v>10.35384260767383</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.85898538238399</v>
+        <v>73.85898538238413</v>
       </c>
       <c r="I9">
-        <v>4.514354779945617</v>
+        <v>4.514354779945574</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.87612104864436</v>
+        <v>19.87612104864439</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.57452369624976</v>
+        <v>34.57452369624962</v>
       </c>
       <c r="C10">
-        <v>38.21471545106309</v>
+        <v>38.21471545106295</v>
       </c>
       <c r="D10">
-        <v>10.33400807707319</v>
+        <v>10.33400807707324</v>
       </c>
       <c r="E10">
-        <v>11.60717957482375</v>
+        <v>11.60717957482369</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.64237359112721</v>
+        <v>81.64237359112727</v>
       </c>
       <c r="I10">
-        <v>4.863164627886197</v>
+        <v>4.863164627886162</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.28750126738406</v>
+        <v>22.28750126738402</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.44964545589842</v>
+        <v>36.44964545589851</v>
       </c>
       <c r="C11">
-        <v>40.14788702525801</v>
+        <v>40.14788702525826</v>
       </c>
       <c r="D11">
-        <v>10.85122914170573</v>
+        <v>10.85122914170574</v>
       </c>
       <c r="E11">
-        <v>12.19111494546334</v>
+        <v>12.19111494546326</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85.27279349375056</v>
+        <v>85.27279349375156</v>
       </c>
       <c r="I11">
-        <v>5.040252861378616</v>
+        <v>5.040252861378604</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.41181287432602</v>
+        <v>23.41181287432601</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.17697933843696</v>
+        <v>37.17697933843691</v>
       </c>
       <c r="C12">
-        <v>40.89400967109678</v>
+        <v>40.89400967109663</v>
       </c>
       <c r="D12">
         <v>11.05048680295523</v>
       </c>
       <c r="E12">
-        <v>12.4162158302585</v>
+        <v>12.41621583025855</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>86.67161456714571</v>
+        <v>86.67161456714577</v>
       </c>
       <c r="I12">
-        <v>5.109010071665905</v>
+        <v>5.109010071665966</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>37.01940992615697</v>
       </c>
       <c r="C13">
-        <v>40.73254893395045</v>
+        <v>40.73254893395031</v>
       </c>
       <c r="D13">
-        <v>11.00738535330503</v>
+        <v>11.00738535330515</v>
       </c>
       <c r="E13">
-        <v>12.36751699313317</v>
+        <v>12.36751699313318</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86.36904466156373</v>
+        <v>86.36904466156359</v>
       </c>
       <c r="I13">
-        <v>5.094112596593349</v>
+        <v>5.094112596593321</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.75157521917954</v>
+        <v>23.75157521917947</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.50908249064849</v>
+        <v>36.50908249064832</v>
       </c>
       <c r="C14">
-        <v>40.20893843434241</v>
+        <v>40.20893843434238</v>
       </c>
       <c r="D14">
-        <v>10.86754124169651</v>
+        <v>10.86754124169656</v>
       </c>
       <c r="E14">
-        <v>12.20953952707723</v>
+        <v>12.20953952707727</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>85.38730941715582</v>
+        <v>85.38730941715609</v>
       </c>
       <c r="I14">
-        <v>5.045870668876431</v>
+        <v>5.045870668876432</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.44729722975864</v>
+        <v>23.44729722975861</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.19901964080805</v>
+        <v>36.19901964080812</v>
       </c>
       <c r="C15">
-        <v>39.89030012245964</v>
+        <v>39.89030012245979</v>
       </c>
       <c r="D15">
-        <v>10.78239019700436</v>
+        <v>10.78239019700437</v>
       </c>
       <c r="E15">
-        <v>12.11336709341449</v>
+        <v>12.11336709341451</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.78952515492033</v>
+        <v>84.78952515492048</v>
       </c>
       <c r="I15">
-        <v>5.016566790884489</v>
+        <v>5.016566790884574</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.26208304283516</v>
+        <v>23.2620830428352</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.45392094184496</v>
+        <v>34.45392094184504</v>
       </c>
       <c r="C16">
-        <v>38.08991185348702</v>
+        <v>38.08991185348735</v>
       </c>
       <c r="D16">
-        <v>10.30057086458133</v>
+        <v>10.30057086458137</v>
       </c>
       <c r="E16">
-        <v>11.56944604100173</v>
+        <v>11.56944604100172</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.40776227480838</v>
+        <v>81.40776227480868</v>
       </c>
       <c r="I16">
-        <v>4.851787211953198</v>
+        <v>4.851787211953172</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.21486844850477</v>
+        <v>22.21486844850488</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.40527171423427</v>
+        <v>33.40527171423454</v>
       </c>
       <c r="C17">
-        <v>37.00239502364555</v>
+        <v>37.00239502364575</v>
       </c>
       <c r="D17">
-        <v>10.00897528992341</v>
+        <v>10.00897528992342</v>
       </c>
       <c r="E17">
-        <v>11.240459502685</v>
+        <v>11.24045950268502</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79.36259425216095</v>
+        <v>79.3625942521614</v>
       </c>
       <c r="I17">
-        <v>4.752946490762623</v>
+        <v>4.752946490762594</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.58170123801087</v>
+        <v>21.58170123801103</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.80802029213459</v>
+        <v>32.80802029213467</v>
       </c>
       <c r="C18">
-        <v>36.38114840125602</v>
+        <v>36.38114840125615</v>
       </c>
       <c r="D18">
-        <v>9.842218200961305</v>
+        <v>9.842218200961316</v>
       </c>
       <c r="E18">
-        <v>11.05237605504284</v>
+        <v>11.05237605504291</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78.19382884334779</v>
+        <v>78.19382884334776</v>
       </c>
       <c r="I18">
-        <v>4.69673341755879</v>
+        <v>4.696733417558825</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.21979046260585</v>
+        <v>21.21979046260591</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.60664147587612</v>
+        <v>32.60664147587608</v>
       </c>
       <c r="C19">
         <v>36.17137809079848</v>
       </c>
       <c r="D19">
-        <v>9.785881359534367</v>
+        <v>9.785881359534388</v>
       </c>
       <c r="E19">
-        <v>10.98884290884987</v>
+        <v>10.98884290884977</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.79914101975794</v>
+        <v>77.79914101975776</v>
       </c>
       <c r="I19">
-        <v>4.677795009883942</v>
+        <v>4.677795009883877</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.0975516957328</v>
+        <v>21.0975516957327</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.51624823246893</v>
+        <v>33.51624823246889</v>
       </c>
       <c r="C20">
         <v>37.11768233367281</v>
       </c>
       <c r="D20">
-        <v>10.03990659777546</v>
+        <v>10.03990659777543</v>
       </c>
       <c r="E20">
-        <v>11.27535092234981</v>
+        <v>11.27535092234985</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.57945836463344</v>
+        <v>79.57945836463364</v>
       </c>
       <c r="I20">
-        <v>4.763398533103752</v>
+        <v>4.763398533103775</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.64884529357457</v>
+        <v>21.64884529357465</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.65843270074557</v>
+        <v>36.65843270074578</v>
       </c>
       <c r="C21">
-        <v>40.36228328856969</v>
+        <v>40.36228328856974</v>
       </c>
       <c r="D21">
-        <v>10.90850674324349</v>
+        <v>10.90850674324352</v>
       </c>
       <c r="E21">
-        <v>12.25581266497969</v>
+        <v>12.25581266497981</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>85.67489932224291</v>
+        <v>85.67489932224326</v>
       </c>
       <c r="I21">
-        <v>5.05998764504915</v>
+        <v>5.059987645049251</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.53641850244822</v>
+        <v>23.53641850244836</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.8192401426249</v>
+        <v>38.81924014262469</v>
       </c>
       <c r="C22">
-        <v>42.57086196927184</v>
+        <v>42.5708619692719</v>
       </c>
       <c r="D22">
-        <v>11.4975165463131</v>
+        <v>11.49751654631295</v>
       </c>
       <c r="E22">
-        <v>12.92155251627331</v>
+        <v>12.92155251627328</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>89.80884364039647</v>
+        <v>89.80884364039649</v>
       </c>
       <c r="I22">
-        <v>5.264304479307637</v>
+        <v>5.264304479307676</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.81907201617831</v>
+        <v>24.81907201617832</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.65265077374595</v>
+        <v>37.65265077374588</v>
       </c>
       <c r="C23">
-        <v>41.38082380891161</v>
+        <v>41.38082380891163</v>
       </c>
       <c r="D23">
-        <v>11.18037976873907</v>
+        <v>11.18037976873909</v>
       </c>
       <c r="E23">
-        <v>12.56300247546499</v>
+        <v>12.56300247546489</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>87.58339427439188</v>
+        <v>87.58339427439141</v>
       </c>
       <c r="I23">
-        <v>5.153987161549894</v>
+        <v>5.153987161549821</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.12816120425</v>
+        <v>24.12816120424996</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.46605870871336</v>
+        <v>33.46605870871371</v>
       </c>
       <c r="C24">
-        <v>37.06554899773391</v>
+        <v>37.06554899773401</v>
       </c>
       <c r="D24">
-        <v>10.02591991367629</v>
+        <v>10.02591991367641</v>
       </c>
       <c r="E24">
-        <v>11.25957336006911</v>
+        <v>11.25957336006914</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.48139296259139</v>
+        <v>79.48139296259238</v>
       </c>
       <c r="I24">
-        <v>4.758671302896812</v>
+        <v>4.758671302896826</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.61848317165347</v>
+        <v>21.61848317165356</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.16833128161588</v>
+        <v>29.16833128161615</v>
       </c>
       <c r="C25">
-        <v>32.56694238432708</v>
+        <v>32.56694238432722</v>
       </c>
       <c r="D25">
-        <v>8.834529982839788</v>
+        <v>8.834529982839747</v>
       </c>
       <c r="E25">
-        <v>9.944668968287473</v>
+        <v>9.944668968287454</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.02025471038904</v>
+        <v>71.02025471038928</v>
       </c>
       <c r="I25">
-        <v>4.465090719189717</v>
+        <v>4.46509071918972</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.99409078987234</v>
+        <v>18.99409078987232</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.02939376501119</v>
+        <v>26.02939376501109</v>
       </c>
       <c r="C2">
-        <v>29.24009814335687</v>
+        <v>29.24009814335685</v>
       </c>
       <c r="D2">
-        <v>8.068205445433135</v>
+        <v>8.068205445433168</v>
       </c>
       <c r="E2">
-        <v>9.134747210577048</v>
+        <v>9.134747210577054</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.7867397076554</v>
+        <v>64.78673970765539</v>
       </c>
       <c r="I2">
-        <v>4.37155675737359</v>
+        <v>4.371556757373621</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.04662393281837</v>
+        <v>17.04662393281834</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86998739502756</v>
+        <v>23.86998739502769</v>
       </c>
       <c r="C3">
-        <v>26.93230672722741</v>
+        <v>26.9323067272277</v>
       </c>
       <c r="D3">
-        <v>7.550478726453201</v>
+        <v>7.550478726453165</v>
       </c>
       <c r="E3">
-        <v>8.593832958505921</v>
+        <v>8.593832958505917</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.49108507054807</v>
+        <v>60.49108507054852</v>
       </c>
       <c r="I3">
-        <v>4.319203551873741</v>
+        <v>4.319203551873675</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.69137881074196</v>
+        <v>15.6913788107421</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.51746885262095</v>
+        <v>22.51746885262092</v>
       </c>
       <c r="C4">
-        <v>25.4791749477484</v>
+        <v>25.47917494774843</v>
       </c>
       <c r="D4">
-        <v>7.231730096224531</v>
+        <v>7.231730096224563</v>
       </c>
       <c r="E4">
-        <v>8.263821448797289</v>
+        <v>8.263821448797298</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.80419312635494</v>
+        <v>57.80419312635465</v>
       </c>
       <c r="I4">
-        <v>4.291662024464855</v>
+        <v>4.291662024464869</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.96214792109608</v>
+        <v>14.96214792109611</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>21.95836597964164</v>
       </c>
       <c r="C5">
-        <v>24.87678250917156</v>
+        <v>24.87678250917183</v>
       </c>
       <c r="D5">
-        <v>7.101474983354865</v>
+        <v>7.101474983354879</v>
       </c>
       <c r="E5">
-        <v>8.129710369094569</v>
+        <v>8.129710369094587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.69538742389062</v>
+        <v>56.69538742389106</v>
       </c>
       <c r="I5">
-        <v>4.281493441482117</v>
+        <v>4.281493441482128</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.66586789891976</v>
+        <v>14.6658678989198</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86501656019715</v>
+        <v>21.86501656019735</v>
       </c>
       <c r="C6">
-        <v>24.77610919528891</v>
+        <v>24.7761091952893</v>
       </c>
       <c r="D6">
-        <v>7.079821578084321</v>
+        <v>7.079821578084335</v>
       </c>
       <c r="E6">
-        <v>8.10746068628055</v>
+        <v>8.107460686280515</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.51039977877451</v>
+        <v>56.51039977877534</v>
       </c>
       <c r="I6">
-        <v>4.279865952468505</v>
+        <v>4.279865952468492</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.61654512351363</v>
+        <v>14.61654512351366</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.50996219258302</v>
+        <v>22.50996219258318</v>
       </c>
       <c r="C7">
-        <v>25.47109361927755</v>
+        <v>25.47109361927771</v>
       </c>
       <c r="D7">
-        <v>7.229975032493553</v>
+        <v>7.229975032493615</v>
       </c>
       <c r="E7">
         <v>8.262011425890019</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.78929713607018</v>
+        <v>57.78929713607074</v>
       </c>
       <c r="I7">
-        <v>4.291520740917212</v>
+        <v>4.291520740917202</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.95816046286417</v>
+        <v>14.9581604628642</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.28951767257821</v>
+        <v>25.28951767257799</v>
       </c>
       <c r="C8">
-        <v>28.45109972106879</v>
+        <v>28.4510997210687</v>
       </c>
       <c r="D8">
-        <v>7.889758024439235</v>
+        <v>7.889758024439317</v>
       </c>
       <c r="E8">
-        <v>8.947676656343623</v>
+        <v>8.94767665634358</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.31478530047424</v>
+        <v>63.31478530047359</v>
       </c>
       <c r="I8">
-        <v>4.352482569167045</v>
+        <v>4.352482569166995</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.58373419359378</v>
+        <v>16.58373419359367</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.60394951305103</v>
+        <v>30.60394951305102</v>
       </c>
       <c r="C9">
-        <v>34.07710678191628</v>
+        <v>34.07710678191605</v>
       </c>
       <c r="D9">
-        <v>9.222626048702795</v>
+        <v>9.222626048702756</v>
       </c>
       <c r="E9">
-        <v>10.35384260767383</v>
+        <v>10.35384260767381</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.85898538238413</v>
+        <v>73.85898538238399</v>
       </c>
       <c r="I9">
-        <v>4.514354779945574</v>
+        <v>4.514354779945617</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.87612104864439</v>
+        <v>19.87612104864436</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.57452369624962</v>
+        <v>34.57452369624976</v>
       </c>
       <c r="C10">
-        <v>38.21471545106295</v>
+        <v>38.21471545106309</v>
       </c>
       <c r="D10">
-        <v>10.33400807707324</v>
+        <v>10.33400807707319</v>
       </c>
       <c r="E10">
-        <v>11.60717957482369</v>
+        <v>11.60717957482375</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.64237359112727</v>
+        <v>81.64237359112721</v>
       </c>
       <c r="I10">
-        <v>4.863164627886162</v>
+        <v>4.863164627886197</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.28750126738402</v>
+        <v>22.28750126738406</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.44964545589851</v>
+        <v>36.44964545589842</v>
       </c>
       <c r="C11">
-        <v>40.14788702525826</v>
+        <v>40.14788702525801</v>
       </c>
       <c r="D11">
-        <v>10.85122914170574</v>
+        <v>10.85122914170573</v>
       </c>
       <c r="E11">
-        <v>12.19111494546326</v>
+        <v>12.19111494546334</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85.27279349375156</v>
+        <v>85.27279349375056</v>
       </c>
       <c r="I11">
-        <v>5.040252861378604</v>
+        <v>5.040252861378616</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.41181287432601</v>
+        <v>23.41181287432602</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.17697933843691</v>
+        <v>37.17697933843696</v>
       </c>
       <c r="C12">
-        <v>40.89400967109663</v>
+        <v>40.89400967109678</v>
       </c>
       <c r="D12">
         <v>11.05048680295523</v>
       </c>
       <c r="E12">
-        <v>12.41621583025855</v>
+        <v>12.4162158302585</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>86.67161456714577</v>
+        <v>86.67161456714571</v>
       </c>
       <c r="I12">
-        <v>5.109010071665966</v>
+        <v>5.109010071665905</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>37.01940992615697</v>
       </c>
       <c r="C13">
-        <v>40.73254893395031</v>
+        <v>40.73254893395045</v>
       </c>
       <c r="D13">
-        <v>11.00738535330515</v>
+        <v>11.00738535330503</v>
       </c>
       <c r="E13">
-        <v>12.36751699313318</v>
+        <v>12.36751699313317</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86.36904466156359</v>
+        <v>86.36904466156373</v>
       </c>
       <c r="I13">
-        <v>5.094112596593321</v>
+        <v>5.094112596593349</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.75157521917947</v>
+        <v>23.75157521917954</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.50908249064832</v>
+        <v>36.50908249064849</v>
       </c>
       <c r="C14">
-        <v>40.20893843434238</v>
+        <v>40.20893843434241</v>
       </c>
       <c r="D14">
-        <v>10.86754124169656</v>
+        <v>10.86754124169651</v>
       </c>
       <c r="E14">
-        <v>12.20953952707727</v>
+        <v>12.20953952707723</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>85.38730941715609</v>
+        <v>85.38730941715582</v>
       </c>
       <c r="I14">
-        <v>5.045870668876432</v>
+        <v>5.045870668876431</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.44729722975861</v>
+        <v>23.44729722975864</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.19901964080812</v>
+        <v>36.19901964080805</v>
       </c>
       <c r="C15">
-        <v>39.89030012245979</v>
+        <v>39.89030012245964</v>
       </c>
       <c r="D15">
-        <v>10.78239019700437</v>
+        <v>10.78239019700436</v>
       </c>
       <c r="E15">
-        <v>12.11336709341451</v>
+        <v>12.11336709341449</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.78952515492048</v>
+        <v>84.78952515492033</v>
       </c>
       <c r="I15">
-        <v>5.016566790884574</v>
+        <v>5.016566790884489</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.2620830428352</v>
+        <v>23.26208304283516</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.45392094184504</v>
+        <v>34.45392094184496</v>
       </c>
       <c r="C16">
-        <v>38.08991185348735</v>
+        <v>38.08991185348702</v>
       </c>
       <c r="D16">
-        <v>10.30057086458137</v>
+        <v>10.30057086458133</v>
       </c>
       <c r="E16">
-        <v>11.56944604100172</v>
+        <v>11.56944604100173</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.40776227480868</v>
+        <v>81.40776227480838</v>
       </c>
       <c r="I16">
-        <v>4.851787211953172</v>
+        <v>4.851787211953198</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.21486844850488</v>
+        <v>22.21486844850477</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.40527171423454</v>
+        <v>33.40527171423427</v>
       </c>
       <c r="C17">
-        <v>37.00239502364575</v>
+        <v>37.00239502364555</v>
       </c>
       <c r="D17">
-        <v>10.00897528992342</v>
+        <v>10.00897528992341</v>
       </c>
       <c r="E17">
-        <v>11.24045950268502</v>
+        <v>11.240459502685</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79.3625942521614</v>
+        <v>79.36259425216095</v>
       </c>
       <c r="I17">
-        <v>4.752946490762594</v>
+        <v>4.752946490762623</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.58170123801103</v>
+        <v>21.58170123801087</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.80802029213467</v>
+        <v>32.80802029213459</v>
       </c>
       <c r="C18">
-        <v>36.38114840125615</v>
+        <v>36.38114840125602</v>
       </c>
       <c r="D18">
-        <v>9.842218200961316</v>
+        <v>9.842218200961305</v>
       </c>
       <c r="E18">
-        <v>11.05237605504291</v>
+        <v>11.05237605504284</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78.19382884334776</v>
+        <v>78.19382884334779</v>
       </c>
       <c r="I18">
-        <v>4.696733417558825</v>
+        <v>4.69673341755879</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.21979046260591</v>
+        <v>21.21979046260585</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.60664147587608</v>
+        <v>32.60664147587612</v>
       </c>
       <c r="C19">
         <v>36.17137809079848</v>
       </c>
       <c r="D19">
-        <v>9.785881359534388</v>
+        <v>9.785881359534367</v>
       </c>
       <c r="E19">
-        <v>10.98884290884977</v>
+        <v>10.98884290884987</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.79914101975776</v>
+        <v>77.79914101975794</v>
       </c>
       <c r="I19">
-        <v>4.677795009883877</v>
+        <v>4.677795009883942</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.0975516957327</v>
+        <v>21.0975516957328</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.51624823246889</v>
+        <v>33.51624823246893</v>
       </c>
       <c r="C20">
         <v>37.11768233367281</v>
       </c>
       <c r="D20">
-        <v>10.03990659777543</v>
+        <v>10.03990659777546</v>
       </c>
       <c r="E20">
-        <v>11.27535092234985</v>
+        <v>11.27535092234981</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.57945836463364</v>
+        <v>79.57945836463344</v>
       </c>
       <c r="I20">
-        <v>4.763398533103775</v>
+        <v>4.763398533103752</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.64884529357465</v>
+        <v>21.64884529357457</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.65843270074578</v>
+        <v>36.65843270074557</v>
       </c>
       <c r="C21">
-        <v>40.36228328856974</v>
+        <v>40.36228328856969</v>
       </c>
       <c r="D21">
-        <v>10.90850674324352</v>
+        <v>10.90850674324349</v>
       </c>
       <c r="E21">
-        <v>12.25581266497981</v>
+        <v>12.25581266497969</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>85.67489932224326</v>
+        <v>85.67489932224291</v>
       </c>
       <c r="I21">
-        <v>5.059987645049251</v>
+        <v>5.05998764504915</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.53641850244836</v>
+        <v>23.53641850244822</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.81924014262469</v>
+        <v>38.8192401426249</v>
       </c>
       <c r="C22">
-        <v>42.5708619692719</v>
+        <v>42.57086196927184</v>
       </c>
       <c r="D22">
-        <v>11.49751654631295</v>
+        <v>11.4975165463131</v>
       </c>
       <c r="E22">
-        <v>12.92155251627328</v>
+        <v>12.92155251627331</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>89.80884364039649</v>
+        <v>89.80884364039647</v>
       </c>
       <c r="I22">
-        <v>5.264304479307676</v>
+        <v>5.264304479307637</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.81907201617832</v>
+        <v>24.81907201617831</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.65265077374588</v>
+        <v>37.65265077374595</v>
       </c>
       <c r="C23">
-        <v>41.38082380891163</v>
+        <v>41.38082380891161</v>
       </c>
       <c r="D23">
-        <v>11.18037976873909</v>
+        <v>11.18037976873907</v>
       </c>
       <c r="E23">
-        <v>12.56300247546489</v>
+        <v>12.56300247546499</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>87.58339427439141</v>
+        <v>87.58339427439188</v>
       </c>
       <c r="I23">
-        <v>5.153987161549821</v>
+        <v>5.153987161549894</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.12816120424996</v>
+        <v>24.12816120425</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.46605870871371</v>
+        <v>33.46605870871336</v>
       </c>
       <c r="C24">
-        <v>37.06554899773401</v>
+        <v>37.06554899773391</v>
       </c>
       <c r="D24">
-        <v>10.02591991367641</v>
+        <v>10.02591991367629</v>
       </c>
       <c r="E24">
-        <v>11.25957336006914</v>
+        <v>11.25957336006911</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.48139296259238</v>
+        <v>79.48139296259139</v>
       </c>
       <c r="I24">
-        <v>4.758671302896826</v>
+        <v>4.758671302896812</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.61848317165356</v>
+        <v>21.61848317165347</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.16833128161615</v>
+        <v>29.16833128161588</v>
       </c>
       <c r="C25">
-        <v>32.56694238432722</v>
+        <v>32.56694238432708</v>
       </c>
       <c r="D25">
-        <v>8.834529982839747</v>
+        <v>8.834529982839788</v>
       </c>
       <c r="E25">
-        <v>9.944668968287454</v>
+        <v>9.944668968287473</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.02025471038928</v>
+        <v>71.02025471038904</v>
       </c>
       <c r="I25">
-        <v>4.46509071918972</v>
+        <v>4.465090719189717</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.99409078987232</v>
+        <v>18.99409078987234</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.02939376501109</v>
+        <v>25.83150273676936</v>
       </c>
       <c r="C2">
-        <v>29.24009814335685</v>
+        <v>29.0853614757326</v>
       </c>
       <c r="D2">
-        <v>8.068205445433168</v>
+        <v>8.045265536024424</v>
       </c>
       <c r="E2">
-        <v>9.134747210577054</v>
+        <v>9.096796384402156</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.030978786047013</v>
       </c>
       <c r="H2">
-        <v>64.78673970765539</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.371556757373621</v>
+        <v>64.81416302415901</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.345870808213157</v>
       </c>
       <c r="K2">
-        <v>17.04662393281834</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16.965026811506</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86998739502769</v>
+        <v>23.69411248083767</v>
       </c>
       <c r="C3">
-        <v>26.9323067272277</v>
+        <v>26.80164353306217</v>
       </c>
       <c r="D3">
-        <v>7.550478726453165</v>
+        <v>7.530634226545805</v>
       </c>
       <c r="E3">
-        <v>8.593832958505917</v>
+        <v>8.556146053316006</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.054994584655487</v>
       </c>
       <c r="H3">
-        <v>60.49108507054852</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.319203551873675</v>
+        <v>60.55764138473673</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.292426721680671</v>
       </c>
       <c r="K3">
-        <v>15.6913788107421</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15.66609230975966</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.51746885262092</v>
+        <v>22.35589903736616</v>
       </c>
       <c r="C4">
-        <v>25.47917494774843</v>
+        <v>25.36422324744658</v>
       </c>
       <c r="D4">
-        <v>7.231730096224563</v>
+        <v>7.213733751456123</v>
       </c>
       <c r="E4">
-        <v>8.263821448797298</v>
+        <v>8.226019630091212</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.069633473733164</v>
       </c>
       <c r="H4">
-        <v>57.80419312635465</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.291662024464869</v>
+        <v>57.89582965543362</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.264177554078612</v>
       </c>
       <c r="K4">
-        <v>14.96214792109611</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.95222890142624</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.95836597964164</v>
+        <v>21.80287787794917</v>
       </c>
       <c r="C5">
-        <v>24.87678250917183</v>
+        <v>24.76852210184521</v>
       </c>
       <c r="D5">
-        <v>7.101474983354879</v>
+        <v>7.084224974275487</v>
       </c>
       <c r="E5">
-        <v>8.129710369094587</v>
+        <v>8.091798519185049</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.075594425175904</v>
       </c>
       <c r="H5">
-        <v>56.69538742389106</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.281493441482128</v>
+        <v>56.79757449767303</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.253712899753954</v>
       </c>
       <c r="K5">
-        <v>14.6658678989198</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.65949858692498</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86501656019735</v>
+        <v>21.71055512231586</v>
       </c>
       <c r="C6">
-        <v>24.7761091952893</v>
+        <v>24.66897889535125</v>
       </c>
       <c r="D6">
-        <v>7.079821578084335</v>
+        <v>7.062695240249033</v>
       </c>
       <c r="E6">
-        <v>8.107460686280515</v>
+        <v>8.069526909474998</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.076584543175972</v>
       </c>
       <c r="H6">
-        <v>56.51039977877534</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.279865952468492</v>
+        <v>56.61436041686725</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.25203582780424</v>
       </c>
       <c r="K6">
-        <v>14.61654512351366</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.61077335550615</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.50996219258318</v>
+        <v>22.3484733053874</v>
       </c>
       <c r="C7">
-        <v>25.47109361927771</v>
+        <v>25.35623091948957</v>
       </c>
       <c r="D7">
-        <v>7.229975032493615</v>
+        <v>7.211988773458203</v>
       </c>
       <c r="E7">
-        <v>8.262011425890019</v>
+        <v>8.2242083717402</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.069713856823739</v>
       </c>
       <c r="H7">
-        <v>57.78929713607074</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.291520740917202</v>
+        <v>57.88107453795674</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.264032306723458</v>
       </c>
       <c r="K7">
-        <v>14.9581604628642</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.94828878312876</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.28951767257799</v>
+        <v>25.09908809342737</v>
       </c>
       <c r="C8">
-        <v>28.4510997210687</v>
+        <v>28.3045042905567</v>
       </c>
       <c r="D8">
-        <v>7.889758024439317</v>
+        <v>7.867900756823598</v>
       </c>
       <c r="E8">
-        <v>8.94767665634358</v>
+        <v>8.909878745839556</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.039296465577324</v>
       </c>
       <c r="H8">
-        <v>63.31478530047359</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4.352482569166995</v>
+        <v>63.35552651143961</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.326429582710608</v>
       </c>
       <c r="K8">
-        <v>16.58373419359367</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.50495274380568</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.60394951305102</v>
+        <v>30.3602405394953</v>
       </c>
       <c r="C9">
-        <v>34.07710678191605</v>
+        <v>33.87290792801257</v>
       </c>
       <c r="D9">
-        <v>9.222626048702756</v>
+        <v>9.188549361571411</v>
       </c>
       <c r="E9">
-        <v>10.35384260767381</v>
+        <v>10.33038568595776</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.977501174878409</v>
       </c>
       <c r="H9">
-        <v>73.85898538238399</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4.514354779945617</v>
+        <v>73.80417864027331</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.51195231408465</v>
       </c>
       <c r="K9">
-        <v>19.87612104864436</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19.77589689743861</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.57452369624976</v>
+        <v>34.28854143107836</v>
       </c>
       <c r="C10">
-        <v>38.21471545106309</v>
+        <v>37.96589305932982</v>
       </c>
       <c r="D10">
-        <v>10.33400807707319</v>
+        <v>10.2923518756128</v>
       </c>
       <c r="E10">
-        <v>11.60717957482375</v>
+        <v>11.57594839776511</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.928277783642415</v>
       </c>
       <c r="H10">
-        <v>81.64237359112721</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4.863164627886197</v>
+        <v>81.51229597143738</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.880243265173174</v>
       </c>
       <c r="K10">
-        <v>22.28750126738406</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22.16836052918462</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.44964545589842</v>
+        <v>36.14169122159529</v>
       </c>
       <c r="C11">
-        <v>40.14788702525801</v>
+        <v>39.87629058170115</v>
       </c>
       <c r="D11">
-        <v>10.85122914170573</v>
+        <v>10.80532307178139</v>
       </c>
       <c r="E11">
-        <v>12.19111494546334</v>
+        <v>12.15539909166251</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.904155396139215</v>
       </c>
       <c r="H11">
-        <v>85.27279349375056</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5.040252861378616</v>
+        <v>85.10417074911541</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.054857570070059</v>
       </c>
       <c r="K11">
-        <v>23.41181287432602</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23.28234704377594</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.17697933843696</v>
+        <v>36.85999129692424</v>
       </c>
       <c r="C12">
-        <v>40.89400967109678</v>
+        <v>40.61313091794927</v>
       </c>
       <c r="D12">
-        <v>11.05048680295523</v>
+        <v>11.00278451712323</v>
       </c>
       <c r="E12">
-        <v>12.4162158302585</v>
+        <v>12.37858354122855</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.894651804695604</v>
       </c>
       <c r="H12">
-        <v>86.67161456714571</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.109010071665905</v>
+        <v>86.48727994712729</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.122614371062675</v>
       </c>
       <c r="K12">
-        <v>23.8453825869639</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23.71159497162148</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.01940992615697</v>
+        <v>36.7044066868827</v>
       </c>
       <c r="C13">
-        <v>40.73254893395045</v>
+        <v>40.45370562172172</v>
       </c>
       <c r="D13">
-        <v>11.00738535330503</v>
+        <v>10.96007991934034</v>
       </c>
       <c r="E13">
-        <v>12.36751699313317</v>
+        <v>12.3303090881284</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.896717531400626</v>
       </c>
       <c r="H13">
-        <v>86.36904466156373</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5.094112596593349</v>
+        <v>86.18815508907134</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.107935862712193</v>
       </c>
       <c r="K13">
-        <v>23.75157521917954</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23.61874057957608</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.50908249064849</v>
+        <v>36.20040193835725</v>
       </c>
       <c r="C14">
-        <v>40.20893843434241</v>
+        <v>39.93659397478982</v>
       </c>
       <c r="D14">
-        <v>10.86754124169651</v>
+        <v>10.82149172955639</v>
       </c>
       <c r="E14">
-        <v>12.20953952707723</v>
+        <v>12.1736710541032</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.903381819119755</v>
       </c>
       <c r="H14">
-        <v>85.38730941715582</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.045870668876431</v>
+        <v>85.21742043883248</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.060394584916801</v>
       </c>
       <c r="K14">
-        <v>23.44729722975864</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>23.31748544751147</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.19901964080805</v>
+        <v>35.89410596199471</v>
       </c>
       <c r="C15">
-        <v>39.89030012245964</v>
+        <v>39.62183836691248</v>
       </c>
       <c r="D15">
-        <v>10.78239019700436</v>
+        <v>10.7370826875593</v>
       </c>
       <c r="E15">
-        <v>12.11336709341449</v>
+        <v>12.07828726764514</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.907411309096869</v>
       </c>
       <c r="H15">
-        <v>84.78952515492033</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.016566790884489</v>
+        <v>84.62620883408991</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.031510404665192</v>
       </c>
       <c r="K15">
-        <v>23.26208304283516</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>23.13406244342865</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.45392094184496</v>
+        <v>34.16929642497637</v>
       </c>
       <c r="C16">
-        <v>38.08991185348702</v>
+        <v>37.84250616184089</v>
       </c>
       <c r="D16">
-        <v>10.30057086458133</v>
+        <v>10.25917114096332</v>
       </c>
       <c r="E16">
-        <v>11.56944604100173</v>
+        <v>11.53848301856954</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.929810336132533</v>
       </c>
       <c r="H16">
-        <v>81.40776227480838</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>4.851787211953198</v>
+        <v>81.28008121521688</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.869020604522594</v>
       </c>
       <c r="K16">
-        <v>22.21486844850477</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>22.0963560669182</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.40527171423427</v>
+        <v>33.13221931893167</v>
       </c>
       <c r="C17">
-        <v>37.00239502364555</v>
+        <v>36.76710875092913</v>
       </c>
       <c r="D17">
-        <v>10.00897528992341</v>
+        <v>9.96972924896003</v>
       </c>
       <c r="E17">
-        <v>11.240459502685</v>
+        <v>11.21173557099188</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.943038186602062</v>
       </c>
       <c r="H17">
-        <v>79.36259425216095</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4.752946490762623</v>
+        <v>79.25540304026062</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.77150742971696</v>
       </c>
       <c r="K17">
-        <v>21.58170123801087</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>21.4684931678845</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.80802029213459</v>
+        <v>32.54139204761053</v>
       </c>
       <c r="C18">
-        <v>36.38114840125602</v>
+        <v>36.15262474587026</v>
       </c>
       <c r="D18">
-        <v>9.842218200961305</v>
+        <v>9.804141369495264</v>
       </c>
       <c r="E18">
-        <v>11.05237605504284</v>
+        <v>11.02485756384044</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.950493050620906</v>
       </c>
       <c r="H18">
-        <v>78.19382884334779</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4.69673341755879</v>
+        <v>78.0980585657162</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.716037692257936</v>
       </c>
       <c r="K18">
-        <v>21.21979046260585</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>21.10948504704476</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.60664147587612</v>
+        <v>32.3421553963283</v>
       </c>
       <c r="C19">
-        <v>36.17137809079848</v>
+        <v>35.94511493757941</v>
       </c>
       <c r="D19">
-        <v>9.785881359534367</v>
+        <v>9.748189979299413</v>
       </c>
       <c r="E19">
-        <v>10.98884290884987</v>
+        <v>10.96172013339556</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.952993639234543</v>
       </c>
       <c r="H19">
-        <v>77.79914101975794</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4.677795009883942</v>
+        <v>77.70718583527326</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.697348109250862</v>
       </c>
       <c r="K19">
-        <v>21.0975516957328</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>20.98820711514378</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.51624823246893</v>
+        <v>33.2419896779206</v>
       </c>
       <c r="C20">
-        <v>37.11768233367281</v>
+        <v>36.88112910719949</v>
       </c>
       <c r="D20">
-        <v>10.03990659777546</v>
+        <v>10.00043887094903</v>
       </c>
       <c r="E20">
-        <v>11.27535092234981</v>
+        <v>11.24639760077554</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.941646645344589</v>
       </c>
       <c r="H20">
-        <v>79.57945836463344</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4.763398533103752</v>
+        <v>79.47012635847321</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.781820401777606</v>
       </c>
       <c r="K20">
-        <v>21.64884529357457</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>21.53508879230878</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.65843270074557</v>
+        <v>36.34791800443898</v>
       </c>
       <c r="C21">
-        <v>40.36228328856969</v>
+        <v>40.08805123776248</v>
       </c>
       <c r="D21">
-        <v>10.90850674324349</v>
+        <v>10.8620942271149</v>
       </c>
       <c r="E21">
-        <v>12.25581266497969</v>
+        <v>12.21955762860219</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.901435615091795</v>
       </c>
       <c r="H21">
-        <v>85.67489932224291</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.05998764504915</v>
+        <v>85.5018150946476</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.074307819226649</v>
       </c>
       <c r="K21">
-        <v>23.53641850244822</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>23.40573189057841</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.8192401426249</v>
+        <v>38.48052461405602</v>
       </c>
       <c r="C22">
-        <v>42.57086196927184</v>
+        <v>42.26784208620713</v>
       </c>
       <c r="D22">
-        <v>11.4975165463131</v>
+        <v>11.44539693232337</v>
       </c>
       <c r="E22">
-        <v>12.92155251627331</v>
+        <v>12.87916284472604</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.872898995893125</v>
       </c>
       <c r="H22">
-        <v>89.80884364039647</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.264304479307637</v>
+        <v>89.58705569188136</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.275541628420919</v>
       </c>
       <c r="K22">
-        <v>24.81907201617831</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.67473891958209</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.65265077374595</v>
+        <v>37.32957163830588</v>
       </c>
       <c r="C23">
-        <v>41.38082380891161</v>
+        <v>41.09371225297944</v>
       </c>
       <c r="D23">
-        <v>11.18037976873907</v>
+        <v>11.13145223440007</v>
       </c>
       <c r="E23">
-        <v>12.56300247546499</v>
+        <v>12.52405663052531</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.888392891710498</v>
       </c>
       <c r="H23">
-        <v>87.58339427439188</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.153987161549894</v>
+        <v>87.38851197662501</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.166922375282621</v>
       </c>
       <c r="K23">
-        <v>24.12816120425</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>23.99143757930124</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.46605870871336</v>
+        <v>33.1923461508571</v>
       </c>
       <c r="C24">
-        <v>37.06554899773391</v>
+        <v>36.82956918000415</v>
       </c>
       <c r="D24">
-        <v>10.02591991367629</v>
+        <v>9.986552621260666</v>
       </c>
       <c r="E24">
-        <v>11.25957336006911</v>
+        <v>11.2307239953311</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.942276220197875</v>
       </c>
       <c r="H24">
-        <v>79.48139296259139</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4.758671302896812</v>
+        <v>79.37302989542434</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.777156105323543</v>
       </c>
       <c r="K24">
-        <v>21.61848317165347</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>21.50497506296805</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.16833128161588</v>
+        <v>28.93910366236987</v>
       </c>
       <c r="C25">
-        <v>32.56694238432708</v>
+        <v>32.37826535861804</v>
       </c>
       <c r="D25">
-        <v>8.834529982839788</v>
+        <v>8.806686603259781</v>
       </c>
       <c r="E25">
-        <v>9.944668968287473</v>
+        <v>9.905321980809578</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.994661665858304</v>
       </c>
       <c r="H25">
-        <v>71.02025471038904</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.465090719189717</v>
+        <v>70.99144634687815</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.440852129203673</v>
       </c>
       <c r="K25">
-        <v>18.99409078987234</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>18.8999898904713</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.83150273676936</v>
+        <v>32.67357864082579</v>
       </c>
       <c r="C2">
-        <v>29.0853614757326</v>
+        <v>18.7980979159973</v>
       </c>
       <c r="D2">
-        <v>8.045265536024424</v>
+        <v>7.093396987871692</v>
       </c>
       <c r="E2">
-        <v>9.096796384402156</v>
+        <v>4.601021792538944</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.030978786047013</v>
+        <v>2.09530448999182</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.81416302415901</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.345870808213157</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>26.87889181353387</v>
       </c>
       <c r="L2">
-        <v>16.965026811506</v>
+        <v>8.066009994462831</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>21.05515254379846</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69411248083767</v>
+        <v>30.61347340490295</v>
       </c>
       <c r="C3">
-        <v>26.80164353306217</v>
+        <v>17.36177555757768</v>
       </c>
       <c r="D3">
-        <v>7.530634226545805</v>
+        <v>6.558574207923586</v>
       </c>
       <c r="E3">
-        <v>8.556146053316006</v>
+        <v>4.612256193538843</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.054994584655487</v>
+        <v>2.114489462355234</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.55764138473673</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.292426721680671</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>25.18853963561518</v>
       </c>
       <c r="L3">
-        <v>15.66609230975966</v>
+        <v>7.789939926346707</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>20.67855821660455</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35589903736616</v>
+        <v>29.32830396153077</v>
       </c>
       <c r="C4">
-        <v>25.36422324744658</v>
+        <v>16.44862756364179</v>
       </c>
       <c r="D4">
-        <v>7.213733751456123</v>
+        <v>6.239439731059918</v>
       </c>
       <c r="E4">
-        <v>8.226019630091212</v>
+        <v>4.620395363365988</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.069633473733164</v>
+        <v>2.126354671216287</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.89582965543362</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.264177554078612</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>24.13501794379049</v>
       </c>
       <c r="L4">
-        <v>14.95222890142624</v>
+        <v>7.625355481370994</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>20.45336185327385</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.80287787794917</v>
+        <v>28.7994489551246</v>
       </c>
       <c r="C5">
-        <v>24.76852210184521</v>
+        <v>16.06825045844205</v>
       </c>
       <c r="D5">
-        <v>7.084224974275487</v>
+        <v>6.120940501610773</v>
       </c>
       <c r="E5">
-        <v>8.091798519185049</v>
+        <v>4.624004426505903</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.075594425175904</v>
+        <v>2.131221910534766</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.79757449767303</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.253712899753954</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>23.70172603478731</v>
       </c>
       <c r="L5">
-        <v>14.65949858692498</v>
+        <v>7.559489492785176</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>20.36298288575828</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.71055512231586</v>
+        <v>28.71132505364563</v>
       </c>
       <c r="C6">
-        <v>24.66897889535125</v>
+        <v>16.00457962711422</v>
       </c>
       <c r="D6">
-        <v>7.062695240249033</v>
+        <v>6.10118008050168</v>
       </c>
       <c r="E6">
-        <v>8.069526909474998</v>
+        <v>4.624620847056734</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.076584543175972</v>
+        <v>2.132032331460546</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.61436041686725</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.25203582780424</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>23.62954014024042</v>
       </c>
       <c r="L6">
-        <v>14.61077335550615</v>
+        <v>7.548624470279453</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>20.3480561519976</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.3484733053874</v>
+        <v>29.32119236051648</v>
       </c>
       <c r="C7">
-        <v>25.35623091948957</v>
+        <v>16.44353160180115</v>
       </c>
       <c r="D7">
-        <v>7.211988773458203</v>
+        <v>6.237847229268673</v>
       </c>
       <c r="E7">
-        <v>8.2242083717402</v>
+        <v>4.620442876693506</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.069713856823739</v>
+        <v>2.126420169708083</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.88107453795674</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.264032306723458</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>24.12919044298091</v>
       </c>
       <c r="L7">
-        <v>14.94828878312876</v>
+        <v>7.624462350791718</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>20.45213749509415</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.09908809342737</v>
+        <v>31.96737030414749</v>
       </c>
       <c r="C8">
-        <v>28.3045042905567</v>
+        <v>18.30906960697018</v>
       </c>
       <c r="D8">
-        <v>7.867900756823598</v>
+        <v>6.911557091714872</v>
       </c>
       <c r="E8">
-        <v>8.909878745839556</v>
+        <v>4.604624702789351</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.039296465577324</v>
+        <v>2.101908531669499</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.35552651143961</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.326429582710608</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>26.29922836619193</v>
       </c>
       <c r="L8">
-        <v>16.50495274380568</v>
+        <v>7.969772655308738</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>20.92396736059803</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.3602405394953</v>
+        <v>37.00908192959876</v>
       </c>
       <c r="C9">
-        <v>33.87290792801257</v>
+        <v>21.74233004785729</v>
       </c>
       <c r="D9">
-        <v>9.188549361571411</v>
+        <v>8.183164103447831</v>
       </c>
       <c r="E9">
-        <v>10.33038568595776</v>
+        <v>4.584582386703666</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.977501174878409</v>
+        <v>2.05395235035843</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.80417864027331</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.51195231408465</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.64022705744093</v>
       </c>
       <c r="L9">
-        <v>19.77589689743861</v>
+        <v>8.688752006284675</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>21.90420036002424</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.28854143107836</v>
+        <v>40.89624946666095</v>
       </c>
       <c r="C10">
-        <v>37.96589305932982</v>
+        <v>24.16803823666545</v>
       </c>
       <c r="D10">
-        <v>10.2923518756128</v>
+        <v>9.075002101440424</v>
       </c>
       <c r="E10">
-        <v>11.57594839776511</v>
+        <v>4.578632429016176</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.928277783642415</v>
+        <v>2.017805366004442</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>81.51229597143738</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.880243265173174</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>33.97504550866883</v>
       </c>
       <c r="L10">
-        <v>22.16836052918462</v>
+        <v>9.248895825639353</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>22.67072781811734</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.14169122159529</v>
+        <v>42.66375867464694</v>
       </c>
       <c r="C11">
-        <v>39.87629058170115</v>
+        <v>25.26292852908952</v>
       </c>
       <c r="D11">
-        <v>10.80532307178139</v>
+        <v>9.475823595666535</v>
       </c>
       <c r="E11">
-        <v>12.15539909166251</v>
+        <v>4.578509955701379</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.904155396139215</v>
+        <v>2.000868060895103</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>85.10417074911541</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.054857570070059</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>35.48007705523475</v>
       </c>
       <c r="L11">
-        <v>23.28234704377594</v>
+        <v>9.513086561485022</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>23.0335513158864</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.85999129692424</v>
+        <v>43.33376727309626</v>
       </c>
       <c r="C12">
-        <v>40.61313091794927</v>
+        <v>25.67769295870078</v>
       </c>
       <c r="D12">
-        <v>11.00278451712323</v>
+        <v>9.627378836313783</v>
       </c>
       <c r="E12">
-        <v>12.37858354122855</v>
+        <v>4.578916170327959</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.894651804695604</v>
+        <v>1.994350370220977</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>86.48727994712729</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.122614371062675</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>36.05003389600801</v>
       </c>
       <c r="L12">
-        <v>23.71159497162148</v>
+        <v>9.61478450621431</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>23.17344087962347</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.7044066868827</v>
+        <v>43.18939996079528</v>
       </c>
       <c r="C13">
-        <v>40.45370562172172</v>
+        <v>25.58833289691149</v>
       </c>
       <c r="D13">
-        <v>10.96007991934034</v>
+        <v>9.594739863034023</v>
       </c>
       <c r="E13">
-        <v>12.3303090881284</v>
+        <v>4.578806973255725</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.896717531400626</v>
+        <v>1.995759315084908</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>86.18815508907134</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.107935862712193</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>35.92724843119242</v>
       </c>
       <c r="L13">
-        <v>23.61874057957608</v>
+        <v>9.592802371463272</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>23.14319320912726</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.20040193835725</v>
+        <v>42.71885328358548</v>
       </c>
       <c r="C14">
-        <v>39.93659397478982</v>
+        <v>25.29703904613073</v>
       </c>
       <c r="D14">
-        <v>10.82149172955639</v>
+        <v>9.488293515176368</v>
       </c>
       <c r="E14">
-        <v>12.1736710541032</v>
+        <v>4.578533744658269</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.903381819119755</v>
+        <v>2.000334149749753</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>85.21742043883248</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.060394584916801</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>35.52695516904033</v>
       </c>
       <c r="L14">
-        <v>23.31748544751147</v>
+        <v>9.521418003835562</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>23.04500692200893</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.89410596199471</v>
+        <v>42.43078908336506</v>
       </c>
       <c r="C15">
-        <v>39.62183836691248</v>
+        <v>25.11868081590859</v>
       </c>
       <c r="D15">
-        <v>10.7370826875593</v>
+        <v>9.423078706126416</v>
       </c>
       <c r="E15">
-        <v>12.07828726764514</v>
+        <v>4.578428181435831</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.907411309096869</v>
+        <v>2.00312170774039</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>84.62620883408991</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.031510404665192</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>35.28182922619663</v>
       </c>
       <c r="L15">
-        <v>23.13406244342865</v>
+        <v>9.477919446491178</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>22.98520623133013</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.16929642497637</v>
+        <v>40.78071406622737</v>
       </c>
       <c r="C16">
-        <v>37.84250616184089</v>
+        <v>24.09642217720938</v>
       </c>
       <c r="D16">
-        <v>10.25917114096332</v>
+        <v>9.048747107785232</v>
       </c>
       <c r="E16">
-        <v>11.53848301856954</v>
+        <v>4.578698783258322</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.929810336132533</v>
+        <v>2.018899705153062</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>81.28008121521688</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.869020604522594</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>33.87658618181901</v>
       </c>
       <c r="L16">
-        <v>22.0963560669182</v>
+        <v>9.231842843770876</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>22.64733742215337</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.13221931893167</v>
+        <v>39.76737836748486</v>
       </c>
       <c r="C17">
-        <v>36.76710875092913</v>
+        <v>23.46797815465774</v>
       </c>
       <c r="D17">
-        <v>9.96972924896003</v>
+        <v>8.818158088766175</v>
       </c>
       <c r="E17">
-        <v>11.21173557099188</v>
+        <v>4.579576668677774</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.943038186602062</v>
+        <v>2.028431711241918</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>79.25540304026062</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.77150742971696</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>33.01254796258937</v>
       </c>
       <c r="L17">
-        <v>21.4684931678845</v>
+        <v>9.083470879641768</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>22.44397440727251</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.54139204761053</v>
+        <v>39.18353924629937</v>
       </c>
       <c r="C18">
-        <v>36.15262474587026</v>
+        <v>23.10560522375438</v>
       </c>
       <c r="D18">
-        <v>9.804141369495264</v>
+        <v>8.685035662427589</v>
       </c>
       <c r="E18">
-        <v>11.02485756384044</v>
+        <v>4.580318766585523</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.950493050620906</v>
+        <v>2.033870179540292</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>78.0980585657162</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.716037692257936</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>32.51431753519095</v>
       </c>
       <c r="L18">
-        <v>21.10948504704476</v>
+        <v>8.99899041737806</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>22.32830059077869</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.3421553963283</v>
+        <v>38.98563908789087</v>
       </c>
       <c r="C19">
-        <v>35.94511493757941</v>
+        <v>22.98271949010507</v>
       </c>
       <c r="D19">
-        <v>9.748189979299413</v>
+        <v>8.639865341191824</v>
       </c>
       <c r="E19">
-        <v>10.96172013339556</v>
+        <v>4.580608690723688</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.952993639234543</v>
+        <v>2.035704845264746</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.70718583527326</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.697348109250862</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>32.34536317399606</v>
       </c>
       <c r="L19">
-        <v>20.98820711514378</v>
+        <v>8.970526677628399</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>22.2893458148789</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.2419896779206</v>
+        <v>39.87534014117873</v>
       </c>
       <c r="C20">
-        <v>36.88112910719949</v>
+        <v>23.53496224927499</v>
       </c>
       <c r="D20">
-        <v>10.00043887094903</v>
+        <v>8.842752726795482</v>
       </c>
       <c r="E20">
-        <v>11.24639760077554</v>
+        <v>4.579458164532324</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.941646645344589</v>
+        <v>2.027421786905555</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>79.47012635847321</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.781820401777606</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>33.10464534965904</v>
       </c>
       <c r="L20">
-        <v>21.53508879230878</v>
+        <v>9.099174523616954</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>22.46548575349995</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.34791800443898</v>
+        <v>42.85702663131018</v>
       </c>
       <c r="C21">
-        <v>40.08805123776248</v>
+        <v>25.38258196474602</v>
       </c>
       <c r="D21">
-        <v>10.8620942271149</v>
+        <v>9.51956113517414</v>
       </c>
       <c r="E21">
-        <v>12.21955762860219</v>
+        <v>4.578600935881481</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.901435615091795</v>
+        <v>1.998993537157143</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>85.5018150946476</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.074307819226649</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>35.64451352153537</v>
       </c>
       <c r="L21">
-        <v>23.40573189057841</v>
+        <v>9.542337427563016</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>23.07377446347017</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.48052461405602</v>
+        <v>44.81116478511223</v>
       </c>
       <c r="C22">
-        <v>42.26784208620713</v>
+        <v>26.59195550266947</v>
       </c>
       <c r="D22">
-        <v>11.44539693232337</v>
+        <v>9.960892671393632</v>
       </c>
       <c r="E22">
-        <v>12.87916284472604</v>
+        <v>4.580738036669597</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.872898995893125</v>
+        <v>1.979785886173952</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>89.58705569188136</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.275541628420919</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>37.30588481326433</v>
       </c>
       <c r="L22">
-        <v>24.67473891958209</v>
+        <v>9.841844294505156</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>23.48620411853254</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.32957163830588</v>
+        <v>43.7668810665695</v>
       </c>
       <c r="C23">
-        <v>41.09371225297944</v>
+        <v>25.94575379089786</v>
       </c>
       <c r="D23">
-        <v>11.13145223440007</v>
+        <v>9.725244778372494</v>
       </c>
       <c r="E23">
-        <v>12.52405663052531</v>
+        <v>4.579316255852234</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.888392891710498</v>
+        <v>1.990108266494368</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>87.38851197662501</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.166922375282621</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>36.41832577439646</v>
       </c>
       <c r="L23">
-        <v>23.99143757930124</v>
+        <v>9.680956357621112</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>23.26452823385164</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.1923461508571</v>
+        <v>39.82653468591697</v>
       </c>
       <c r="C24">
-        <v>36.82956918000415</v>
+        <v>23.50468217860942</v>
       </c>
       <c r="D24">
-        <v>9.986552621260666</v>
+        <v>8.831635249710239</v>
       </c>
       <c r="E24">
-        <v>11.2307239953311</v>
+        <v>4.579511006565746</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.942276220197875</v>
+        <v>2.027878500946628</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>79.37302989542434</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.777156105323543</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>33.06301286686812</v>
       </c>
       <c r="L24">
-        <v>21.50497506296805</v>
+        <v>9.092072371858206</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>22.45575663750553</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.93910366236987</v>
+        <v>35.65813637155055</v>
       </c>
       <c r="C25">
-        <v>32.37826535861804</v>
+        <v>20.83399308152949</v>
       </c>
       <c r="D25">
-        <v>8.806686603259781</v>
+        <v>7.847834678575298</v>
       </c>
       <c r="E25">
-        <v>9.905321980809578</v>
+        <v>4.588646672291713</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.994661665858304</v>
+        <v>2.067003085427757</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.99144634687815</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.440852129203673</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>29.39217007203849</v>
       </c>
       <c r="L25">
-        <v>18.8999898904713</v>
+        <v>8.489262279509017</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>21.63199414924777</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.67357864082579</v>
+        <v>24.45961926563317</v>
       </c>
       <c r="C2">
-        <v>18.7980979159973</v>
+        <v>13.53934617802317</v>
       </c>
       <c r="D2">
-        <v>7.093396987871692</v>
+        <v>7.169936176008669</v>
       </c>
       <c r="E2">
-        <v>4.601021792538944</v>
+        <v>6.748413553749256</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.09530448999182</v>
+        <v>63.23230064522951</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>17.28516090349814</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26.87889181353387</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.066009994462831</v>
+        <v>7.338516561755524</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.05515254379846</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.61347340490295</v>
+        <v>22.6979412589298</v>
       </c>
       <c r="C3">
-        <v>17.36177555757768</v>
+        <v>12.73230649209049</v>
       </c>
       <c r="D3">
-        <v>6.558574207923586</v>
+        <v>6.650405784795629</v>
       </c>
       <c r="E3">
-        <v>4.612256193538843</v>
+        <v>6.751823078139159</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.114489462355234</v>
+        <v>59.8231602527503</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>16.68145655851998</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>25.18853963561518</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.789939926346707</v>
+        <v>7.081085270480733</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.67855821660455</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.32830396153077</v>
+        <v>21.56471902596478</v>
       </c>
       <c r="C4">
-        <v>16.44862756364179</v>
+        <v>12.21557857739593</v>
       </c>
       <c r="D4">
-        <v>6.239439731059918</v>
+        <v>6.316266890659117</v>
       </c>
       <c r="E4">
-        <v>4.620395363365988</v>
+        <v>6.756866914710391</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.126354671216287</v>
+        <v>57.71040530213882</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>16.3183312666402</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>24.13501794379049</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.625355481370994</v>
+        <v>6.924888245841447</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.45336185327385</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.7994489551246</v>
+        <v>21.08975615175315</v>
       </c>
       <c r="C5">
-        <v>16.06825045844205</v>
+        <v>11.99962597421183</v>
       </c>
       <c r="D5">
-        <v>6.120940501610773</v>
+        <v>6.191495172114656</v>
       </c>
       <c r="E5">
-        <v>4.624004426505903</v>
+        <v>6.759631185093906</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.131221910534766</v>
+        <v>56.84504972726845</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>16.17228010989368</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>23.70172603478731</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.559489492785176</v>
+        <v>6.861752056062961</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.36298288575828</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.71132505364563</v>
+        <v>21.01008846685085</v>
       </c>
       <c r="C6">
-        <v>16.00457962711422</v>
+        <v>11.96344120568816</v>
       </c>
       <c r="D6">
-        <v>6.10118008050168</v>
+        <v>6.171728228387722</v>
       </c>
       <c r="E6">
-        <v>4.624620847056734</v>
+        <v>6.760132080490769</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.132032331460546</v>
+        <v>56.70111224673009</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>16.14814577819257</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>23.62954014024042</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.548624470279453</v>
+        <v>6.851300964831286</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.3480561519976</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.32119236051648</v>
+        <v>21.55836706235083</v>
       </c>
       <c r="C7">
-        <v>16.44353160180115</v>
+        <v>12.21268800302497</v>
       </c>
       <c r="D7">
-        <v>6.237847229268673</v>
+        <v>6.314393893343746</v>
       </c>
       <c r="E7">
-        <v>4.620442876693506</v>
+        <v>6.756901366464358</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.126420169708083</v>
+        <v>57.69875174827337</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16.31635372761442</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24.12919044298091</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.624462350791718</v>
+        <v>6.924034615697265</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.45213749509415</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.96737030414749</v>
+        <v>23.86275671958883</v>
       </c>
       <c r="C8">
-        <v>18.30906960697018</v>
+        <v>13.26544082908632</v>
       </c>
       <c r="D8">
-        <v>6.911557091714872</v>
+        <v>6.993892056551402</v>
       </c>
       <c r="E8">
-        <v>4.604624702789351</v>
+        <v>6.748956198700302</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.101908531669499</v>
+        <v>62.06112570113734</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>17.07544642204844</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>26.29922836619193</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.969772655308738</v>
+        <v>7.249391516950529</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.92396736059803</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.00908192959876</v>
+        <v>27.98382233870516</v>
       </c>
       <c r="C9">
-        <v>21.74233004785729</v>
+        <v>15.16537316359859</v>
       </c>
       <c r="D9">
-        <v>8.183164103447831</v>
+        <v>8.210442057318341</v>
       </c>
       <c r="E9">
-        <v>4.584582386703666</v>
+        <v>6.758405644609127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.05395235035843</v>
+        <v>70.45007938772272</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>18.62402523180326</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.64022705744093</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.688752006284675</v>
+        <v>7.900773602207163</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.90420036002424</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.89624946666095</v>
+        <v>30.78755827463458</v>
       </c>
       <c r="C10">
-        <v>24.16803823666545</v>
+        <v>16.4682775095905</v>
       </c>
       <c r="D10">
-        <v>9.075002101440424</v>
+        <v>9.040135401133039</v>
       </c>
       <c r="E10">
-        <v>4.578632429016176</v>
+        <v>6.783095370796258</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.017805366004442</v>
+        <v>76.51688129582462</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>19.80100480890762</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>33.97504550866883</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>9.248895825639353</v>
+        <v>8.386592534995501</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.67072781811734</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42.66375867464694</v>
+        <v>32.01944852128526</v>
       </c>
       <c r="C11">
-        <v>25.26292852908952</v>
+        <v>17.0430705530531</v>
       </c>
       <c r="D11">
-        <v>9.475823595666535</v>
+        <v>9.405363577828036</v>
       </c>
       <c r="E11">
-        <v>4.578509955701379</v>
+        <v>6.798813420002317</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.000868060895103</v>
+        <v>79.26243046701354</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>20.3464364898572</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.48007705523475</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>9.513086561485022</v>
+        <v>8.609345550835171</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.0335513158864</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.33376727309626</v>
+        <v>32.48017273597136</v>
       </c>
       <c r="C12">
-        <v>25.67769295870078</v>
+        <v>17.25839345801702</v>
       </c>
       <c r="D12">
-        <v>9.627378836313783</v>
+        <v>9.542076148214022</v>
       </c>
       <c r="E12">
-        <v>4.578916170327959</v>
+        <v>6.805471351051484</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.994350370220977</v>
+        <v>80.30098778481251</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>20.55461457158452</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>36.05003389600801</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>9.61478450621431</v>
+        <v>8.693989880515231</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.17344087962347</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>43.18939996079528</v>
+        <v>32.38119521324936</v>
       </c>
       <c r="C13">
-        <v>25.58833289691149</v>
+        <v>17.21211956536985</v>
       </c>
       <c r="D13">
-        <v>9.594739863034023</v>
+        <v>9.512700564567917</v>
       </c>
       <c r="E13">
-        <v>4.578806973255725</v>
+        <v>6.804005000317362</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.995759315084908</v>
+        <v>80.0773473407309</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>20.50970312494161</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.92724843119242</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>9.592802371463272</v>
+        <v>8.675746276364775</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.14319320912726</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42.71885328358548</v>
+        <v>32.05746501098243</v>
       </c>
       <c r="C14">
-        <v>25.29703904613073</v>
+        <v>17.06083064908142</v>
       </c>
       <c r="D14">
-        <v>9.488293515176368</v>
+        <v>9.416641874972791</v>
       </c>
       <c r="E14">
-        <v>4.578533744658269</v>
+        <v>6.799346649360952</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.000334149749753</v>
+        <v>79.34788915853912</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>20.36352929344728</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.52695516904033</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>9.521418003835562</v>
+        <v>8.616303103420874</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.04500692200893</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42.43078908336506</v>
+        <v>31.85843609888935</v>
       </c>
       <c r="C15">
-        <v>25.11868081590859</v>
+        <v>16.9678650545063</v>
       </c>
       <c r="D15">
-        <v>9.423078706126416</v>
+        <v>9.357601166126365</v>
       </c>
       <c r="E15">
-        <v>4.578428181435831</v>
+        <v>6.796587134955806</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.00312170774039</v>
+        <v>78.90096216329124</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>20.27421348849737</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.28182922619663</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>9.477919446491178</v>
+        <v>8.579932185893954</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.98520623133013</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.78071406622737</v>
+        <v>30.70621573875912</v>
       </c>
       <c r="C16">
-        <v>24.09642217720938</v>
+        <v>16.43037226069779</v>
       </c>
       <c r="D16">
-        <v>9.048747107785232</v>
+        <v>9.016034754176523</v>
       </c>
       <c r="E16">
-        <v>4.578698783258322</v>
+        <v>6.782163450412138</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.018899705153062</v>
+        <v>76.33723787863794</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>19.76557620504153</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>33.87658618181901</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>9.231842843770876</v>
+        <v>8.372073268051732</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.64733742215337</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39.76737836748486</v>
+        <v>29.9885419523922</v>
       </c>
       <c r="C17">
-        <v>23.46797815465774</v>
+        <v>16.0962055866205</v>
       </c>
       <c r="D17">
-        <v>8.818158088766175</v>
+        <v>8.803478304641692</v>
       </c>
       <c r="E17">
-        <v>4.579576668677774</v>
+        <v>6.774504877544676</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.028431711241918</v>
+        <v>74.76137817954023</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>19.45622660996505</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>33.01254796258937</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>9.083470879641768</v>
+        <v>8.245028502683379</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.44397440727251</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.18353924629937</v>
+        <v>29.5716225296606</v>
       </c>
       <c r="C18">
-        <v>23.10560522375438</v>
+        <v>15.90229977787128</v>
       </c>
       <c r="D18">
-        <v>8.685035662427589</v>
+        <v>8.680061762899047</v>
       </c>
       <c r="E18">
-        <v>4.580318766585523</v>
+        <v>6.770518110912595</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.033870179540292</v>
+        <v>73.85356717782534</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>19.27922438919828</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>32.51431753519095</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.99899041737806</v>
+        <v>8.172116740886263</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.32830059077869</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>38.98563908789087</v>
+        <v>29.42973717550073</v>
       </c>
       <c r="C19">
-        <v>22.98271949010507</v>
+        <v>15.83634784051885</v>
       </c>
       <c r="D19">
-        <v>8.639865341191824</v>
+        <v>8.638071258665343</v>
       </c>
       <c r="E19">
-        <v>4.580608690723688</v>
+        <v>6.769238369724322</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.035704845264746</v>
+        <v>73.54593148858548</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>19.21944895439723</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>32.34536317399606</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.970526677628399</v>
+        <v>8.147456883551587</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.2893458148789</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>39.87534014117873</v>
+        <v>30.06536390216347</v>
       </c>
       <c r="C20">
-        <v>23.53496224927499</v>
+        <v>16.13195278549013</v>
       </c>
       <c r="D20">
-        <v>8.842752726795482</v>
+        <v>8.826224216061592</v>
       </c>
       <c r="E20">
-        <v>4.579458164532324</v>
+        <v>6.775276444539218</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.027421786905555</v>
+        <v>74.92927224351847</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>19.48906022175639</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>33.10464534965904</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>9.099174523616954</v>
+        <v>8.258535752504315</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.46548575349995</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42.85702663131018</v>
+        <v>32.15270455333791</v>
       </c>
       <c r="C21">
-        <v>25.38258196474602</v>
+        <v>17.10532922731471</v>
       </c>
       <c r="D21">
-        <v>9.51956113517414</v>
+        <v>9.44489840803065</v>
       </c>
       <c r="E21">
-        <v>4.578600935881481</v>
+        <v>6.800695239665262</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.998993537157143</v>
+        <v>79.56217006902085</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>20.40641781807504</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.64451352153537</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>9.542337427563016</v>
+        <v>8.633754613159244</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.07377446347017</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>44.81116478511223</v>
+        <v>33.48358541160182</v>
       </c>
       <c r="C22">
-        <v>26.59195550266947</v>
+        <v>17.72800035317147</v>
       </c>
       <c r="D22">
-        <v>9.960892671393632</v>
+        <v>9.840056143102691</v>
       </c>
       <c r="E22">
-        <v>4.580738036669597</v>
+        <v>6.821456424945138</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.979785886173952</v>
+        <v>82.58417843207067</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>21.01563743882668</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>37.30588481326433</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.841844294505156</v>
+        <v>8.900727202659471</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.48620411853254</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43.7668810665695</v>
+        <v>32.77613219979354</v>
       </c>
       <c r="C23">
-        <v>25.94575379089786</v>
+        <v>17.3968122994561</v>
       </c>
       <c r="D23">
-        <v>9.725244778372494</v>
+        <v>9.629932546996599</v>
       </c>
       <c r="E23">
-        <v>4.579316255852234</v>
+        <v>6.809973953936854</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.990108266494368</v>
+        <v>80.97141334845907</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>20.68951699790359</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>36.41832577439646</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>9.680956357621112</v>
+        <v>8.748732560741113</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.26452823385164</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>39.82653468591697</v>
+        <v>30.03064618833029</v>
       </c>
       <c r="C24">
-        <v>23.50468217860942</v>
+        <v>16.11579706613241</v>
       </c>
       <c r="D24">
-        <v>8.831635249710239</v>
+        <v>8.815944585955476</v>
       </c>
       <c r="E24">
-        <v>4.579511006565746</v>
+        <v>6.774926327043911</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.027878500946628</v>
+        <v>74.85337309744033</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>19.47421352145463</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>33.06301286686812</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>9.092072371858206</v>
+        <v>8.252428728990152</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.45575663750553</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.65813637155055</v>
+        <v>26.90981680739799</v>
       </c>
       <c r="C25">
-        <v>20.83399308152949</v>
+        <v>14.66836281362386</v>
       </c>
       <c r="D25">
-        <v>7.847834678575298</v>
+        <v>7.893111185706434</v>
       </c>
       <c r="E25">
-        <v>4.588646672291713</v>
+        <v>6.752928186308712</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.067003085427757</v>
+        <v>68.19888111154096</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>18.19853370563708</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>29.39217007203849</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.489262279509017</v>
+        <v>7.723276967499928</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.63199414924777</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.45961926563317</v>
+        <v>20.25668576553308</v>
       </c>
       <c r="C2">
-        <v>13.53934617802317</v>
+        <v>8.294962618303064</v>
       </c>
       <c r="D2">
-        <v>7.169936176008669</v>
+        <v>6.016425161195423</v>
       </c>
       <c r="E2">
-        <v>6.748413553749256</v>
+        <v>10.63261176225111</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.23230064522951</v>
+        <v>55.14396153613016</v>
       </c>
       <c r="H2">
-        <v>17.28516090349814</v>
+        <v>20.06463767247139</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.338516561755524</v>
+        <v>10.15134418404072</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.6979412589298</v>
+        <v>19.84175710689192</v>
       </c>
       <c r="C3">
-        <v>12.73230649209049</v>
+        <v>7.897022757154873</v>
       </c>
       <c r="D3">
-        <v>6.650405784795629</v>
+        <v>5.904646904057813</v>
       </c>
       <c r="E3">
-        <v>6.751823078139159</v>
+        <v>10.65024970330101</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.8231602527503</v>
+        <v>54.30185226203805</v>
       </c>
       <c r="H3">
-        <v>16.68145655851998</v>
+        <v>19.98838200967699</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.081085270480733</v>
+        <v>10.13800711783105</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56471902596478</v>
+        <v>19.58960932346353</v>
       </c>
       <c r="C4">
-        <v>12.21557857739593</v>
+        <v>7.640293370363234</v>
       </c>
       <c r="D4">
-        <v>6.316266890659117</v>
+        <v>5.836955220237453</v>
       </c>
       <c r="E4">
-        <v>6.756866914710391</v>
+        <v>10.66216224908986</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.71040530213882</v>
+        <v>53.7948506004724</v>
       </c>
       <c r="H4">
-        <v>16.3183312666402</v>
+        <v>19.9459583214288</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.924888245841447</v>
+        <v>10.13202632496074</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.08975615175315</v>
+        <v>19.48767993894712</v>
       </c>
       <c r="C5">
-        <v>11.99962597421183</v>
+        <v>7.532614652266297</v>
       </c>
       <c r="D5">
-        <v>6.191495172114656</v>
+        <v>5.809646447545986</v>
       </c>
       <c r="E5">
-        <v>6.759631185093906</v>
+        <v>10.66728877307331</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.84504972726845</v>
+        <v>53.59100702358845</v>
       </c>
       <c r="H5">
-        <v>16.17228010989368</v>
+        <v>19.92978142798462</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.861752056062961</v>
+        <v>10.13014561440271</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01008846685085</v>
+        <v>19.47080915925645</v>
       </c>
       <c r="C6">
-        <v>11.96344120568816</v>
+        <v>7.51455177742906</v>
       </c>
       <c r="D6">
-        <v>6.171728228387722</v>
+        <v>5.805129678281349</v>
       </c>
       <c r="E6">
-        <v>6.760132080490769</v>
+        <v>10.66815645435867</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.70111224673009</v>
+        <v>53.55733260610347</v>
       </c>
       <c r="H6">
-        <v>16.14814577819257</v>
+        <v>19.92716250155535</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.851300964831286</v>
+        <v>10.12986696400514</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55836706235083</v>
+        <v>19.58823111876956</v>
       </c>
       <c r="C7">
-        <v>12.21268800302497</v>
+        <v>7.638853481806922</v>
       </c>
       <c r="D7">
-        <v>6.314393893343746</v>
+        <v>5.836585754268219</v>
       </c>
       <c r="E7">
-        <v>6.756901366464358</v>
+        <v>10.6622302858734</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.69875174827337</v>
+        <v>53.79208999933023</v>
       </c>
       <c r="H7">
-        <v>16.31635372761442</v>
+        <v>19.94573564963491</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.924034615697265</v>
+        <v>10.13199870642287</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.86275671958883</v>
+        <v>20.1131724747924</v>
       </c>
       <c r="C8">
-        <v>13.26544082908632</v>
+        <v>8.160355915503265</v>
       </c>
       <c r="D8">
-        <v>6.993892056551402</v>
+        <v>5.977712586586239</v>
       </c>
       <c r="E8">
-        <v>6.748956198700302</v>
+        <v>10.63846846926343</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.06112570113734</v>
+        <v>54.85165770685717</v>
       </c>
       <c r="H8">
-        <v>17.07544642204844</v>
+        <v>20.03743559285706</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.249391516950529</v>
+        <v>10.14628810517802</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.98382233870516</v>
+        <v>21.15627642076233</v>
       </c>
       <c r="C9">
-        <v>15.16537316359859</v>
+        <v>9.082701905637318</v>
       </c>
       <c r="D9">
-        <v>8.210442057318341</v>
+        <v>6.260188039079089</v>
       </c>
       <c r="E9">
-        <v>6.758405644609127</v>
+        <v>10.60047249549526</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.45007938772272</v>
+        <v>56.99869394584235</v>
       </c>
       <c r="H9">
-        <v>18.62402523180326</v>
+        <v>20.25185831349845</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.900773602207163</v>
+        <v>10.1917604400492</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.78755827463458</v>
+        <v>21.92177709249442</v>
       </c>
       <c r="C10">
-        <v>16.4682775095905</v>
+        <v>9.697132702895352</v>
       </c>
       <c r="D10">
-        <v>9.040135401133039</v>
+        <v>6.468922681686521</v>
       </c>
       <c r="E10">
-        <v>6.783095370796258</v>
+        <v>10.57781349160549</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.51688129582462</v>
+        <v>58.60400129078809</v>
       </c>
       <c r="H10">
-        <v>19.80100480890762</v>
+        <v>20.43000850298402</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.386592534995501</v>
+        <v>10.23568992052234</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.01944852128526</v>
+        <v>22.2679978087052</v>
       </c>
       <c r="C11">
-        <v>17.0430705530531</v>
+        <v>9.962631666667662</v>
       </c>
       <c r="D11">
-        <v>9.405363577828036</v>
+        <v>6.56367581936895</v>
       </c>
       <c r="E11">
-        <v>6.798813420002317</v>
+        <v>10.56864958763318</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.26243046701354</v>
+        <v>59.33732105447195</v>
       </c>
       <c r="H11">
-        <v>20.3464364898572</v>
+        <v>20.51539998857455</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.609345550835171</v>
+        <v>10.25792575531729</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.48017273597136</v>
+        <v>22.39867053296141</v>
       </c>
       <c r="C12">
-        <v>17.25839345801702</v>
+        <v>10.06113704074334</v>
       </c>
       <c r="D12">
-        <v>9.542076148214022</v>
+        <v>6.599490454199526</v>
       </c>
       <c r="E12">
-        <v>6.805471351051484</v>
+        <v>10.56534416174989</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.30098778481251</v>
+        <v>59.61520139521167</v>
       </c>
       <c r="H12">
-        <v>20.55461457158452</v>
+        <v>20.54834798759135</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.693989880515231</v>
+        <v>10.26666622311337</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.38119521324936</v>
+        <v>22.3705493194045</v>
       </c>
       <c r="C13">
-        <v>17.21211956536985</v>
+        <v>10.040012831098</v>
       </c>
       <c r="D13">
-        <v>9.512700564567917</v>
+        <v>6.591780658115949</v>
       </c>
       <c r="E13">
-        <v>6.804005000317362</v>
+        <v>10.5660487130038</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>80.0773473407309</v>
+        <v>59.55535046602974</v>
       </c>
       <c r="H13">
-        <v>20.50970312494161</v>
+        <v>20.5412250497516</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.675746276364775</v>
+        <v>10.26476962585001</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.05746501098243</v>
+        <v>22.27875781991952</v>
       </c>
       <c r="C14">
-        <v>17.06083064908142</v>
+        <v>9.970776605874995</v>
       </c>
       <c r="D14">
-        <v>9.416641874972791</v>
+        <v>6.566623848044416</v>
       </c>
       <c r="E14">
-        <v>6.799346649360952</v>
+        <v>10.56837434497753</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.34788915853912</v>
+        <v>59.36018008694853</v>
       </c>
       <c r="H14">
-        <v>20.36352929344728</v>
+        <v>20.51809845412576</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.616303103420874</v>
+        <v>10.25863844284038</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.85843609888935</v>
+        <v>22.2224722658466</v>
       </c>
       <c r="C15">
-        <v>16.9678650545063</v>
+        <v>9.928102137885743</v>
       </c>
       <c r="D15">
-        <v>9.357601166126365</v>
+        <v>6.551204858596214</v>
       </c>
       <c r="E15">
-        <v>6.796587134955806</v>
+        <v>10.56982032439535</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.90096216329124</v>
+        <v>59.24064972521022</v>
       </c>
       <c r="H15">
-        <v>20.27421348849737</v>
+        <v>20.50401204056157</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.579932185893954</v>
+        <v>10.25492450710225</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.70621573875912</v>
+        <v>21.89909777154073</v>
       </c>
       <c r="C16">
-        <v>16.43037226069779</v>
+        <v>9.67949810929891</v>
       </c>
       <c r="D16">
-        <v>9.016034754176523</v>
+        <v>6.462723056915842</v>
       </c>
       <c r="E16">
-        <v>6.782163450412138</v>
+        <v>10.57843541345963</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.33723787863794</v>
+        <v>58.55611699849309</v>
       </c>
       <c r="H16">
-        <v>19.76557620504153</v>
+        <v>20.42451438163734</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.372073268051732</v>
+        <v>10.23428177481661</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.9885419523922</v>
+        <v>21.70009786389802</v>
       </c>
       <c r="C17">
-        <v>16.0962055866205</v>
+        <v>9.523384682573115</v>
       </c>
       <c r="D17">
-        <v>8.803478304641692</v>
+        <v>6.408363655295359</v>
       </c>
       <c r="E17">
-        <v>6.774504877544676</v>
+        <v>10.58401363735176</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>74.76137817954023</v>
+        <v>58.13678056328501</v>
       </c>
       <c r="H17">
-        <v>19.45622660996505</v>
+        <v>20.37685012085921</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.245028502683379</v>
+        <v>10.22219250020277</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.5716225296606</v>
+        <v>21.58545739460933</v>
       </c>
       <c r="C18">
-        <v>15.90229977787128</v>
+        <v>9.432274609103814</v>
       </c>
       <c r="D18">
-        <v>8.680061762899047</v>
+        <v>6.377080753013968</v>
       </c>
       <c r="E18">
-        <v>6.770518110912595</v>
+        <v>10.58732972736269</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>73.85356717782534</v>
+        <v>57.89589184514629</v>
       </c>
       <c r="H18">
-        <v>19.27922438919828</v>
+        <v>20.34984523095169</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.172116740886263</v>
+        <v>10.21545128829836</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.42973717550073</v>
+        <v>21.5466155574767</v>
       </c>
       <c r="C19">
-        <v>15.83634784051885</v>
+        <v>9.401200630016172</v>
       </c>
       <c r="D19">
-        <v>8.638071258665343</v>
+        <v>6.366487178797128</v>
       </c>
       <c r="E19">
-        <v>6.769238369724322</v>
+        <v>10.58847097796993</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>73.54593148858548</v>
+        <v>57.81439078300852</v>
       </c>
       <c r="H19">
-        <v>19.21944895439723</v>
+        <v>20.34077270390864</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.147456883551587</v>
+        <v>10.21320538209195</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.06536390216347</v>
+        <v>21.72130154887223</v>
       </c>
       <c r="C20">
-        <v>16.13195278549013</v>
+        <v>9.540139757946655</v>
       </c>
       <c r="D20">
-        <v>8.826224216061592</v>
+        <v>6.414152322566021</v>
       </c>
       <c r="E20">
-        <v>6.775276444539218</v>
+        <v>10.58340868326862</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>74.92927224351847</v>
+        <v>58.18139017604523</v>
       </c>
       <c r="H20">
-        <v>19.48906022175639</v>
+        <v>20.38188168853782</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.258535752504315</v>
+        <v>10.22345748514905</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.15270455333791</v>
+        <v>22.3057320857661</v>
       </c>
       <c r="C21">
-        <v>17.10532922731471</v>
+        <v>9.991168275263588</v>
       </c>
       <c r="D21">
-        <v>9.44489840803065</v>
+        <v>6.57401510221282</v>
       </c>
       <c r="E21">
-        <v>6.800695239665262</v>
+        <v>10.56768677721569</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.56217006902085</v>
+        <v>59.41750322809403</v>
       </c>
       <c r="H21">
-        <v>20.40641781807504</v>
+        <v>20.52487479665753</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.633754613159244</v>
+        <v>10.26043065939395</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.48358541160182</v>
+        <v>22.68510309035037</v>
       </c>
       <c r="C22">
-        <v>17.72800035317147</v>
+        <v>10.27408404224543</v>
       </c>
       <c r="D22">
-        <v>9.840056143102691</v>
+        <v>6.678092015643617</v>
       </c>
       <c r="E22">
-        <v>6.821456424945138</v>
+        <v>10.55837198849371</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.58417843207067</v>
+        <v>60.22635881459899</v>
       </c>
       <c r="H22">
-        <v>21.01563743882668</v>
+        <v>20.62188977916603</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.900727202659471</v>
+        <v>10.28645942145894</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.77613219979354</v>
+        <v>22.48290805575629</v>
       </c>
       <c r="C23">
-        <v>17.3968122994561</v>
+        <v>10.12417662384642</v>
       </c>
       <c r="D23">
-        <v>9.629932546996599</v>
+        <v>6.622592943523515</v>
       </c>
       <c r="E23">
-        <v>6.809973953936854</v>
+        <v>10.56325550320209</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>80.97141334845907</v>
+        <v>59.7946487193881</v>
       </c>
       <c r="H23">
-        <v>20.68951699790359</v>
+        <v>20.56978999092454</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.748732560741113</v>
+        <v>10.27239805765487</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.03064618833029</v>
+        <v>21.71171607686427</v>
       </c>
       <c r="C24">
-        <v>16.11579706613241</v>
+        <v>9.532569017955648</v>
       </c>
       <c r="D24">
-        <v>8.815944585955476</v>
+        <v>6.411535359666</v>
       </c>
       <c r="E24">
-        <v>6.774926327043911</v>
+        <v>10.58368184322423</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>74.85337309744033</v>
+        <v>58.16122154861265</v>
       </c>
       <c r="H24">
-        <v>19.47421352145463</v>
+        <v>20.37960567632684</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.252428728990152</v>
+        <v>10.22288493396963</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.90981680739799</v>
+        <v>20.87359514000309</v>
       </c>
       <c r="C25">
-        <v>14.66836281362386</v>
+        <v>8.844164125064346</v>
       </c>
       <c r="D25">
-        <v>7.893111185706434</v>
+        <v>6.183397690328204</v>
       </c>
       <c r="E25">
-        <v>6.752928186308712</v>
+        <v>10.60982923827612</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.19888111154096</v>
+        <v>56.41192963636967</v>
       </c>
       <c r="H25">
-        <v>18.19853370563708</v>
+        <v>20.19019118727472</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.723276967499928</v>
+        <v>10.17760124361842</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.25668576553308</v>
+        <v>24.45961926563312</v>
       </c>
       <c r="C2">
-        <v>8.294962618303064</v>
+        <v>13.53934617802315</v>
       </c>
       <c r="D2">
-        <v>6.016425161195423</v>
+        <v>7.169936176008651</v>
       </c>
       <c r="E2">
-        <v>10.63261176225111</v>
+        <v>6.748413553749268</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.14396153613016</v>
+        <v>63.23230064522946</v>
       </c>
       <c r="H2">
-        <v>20.06463767247139</v>
+        <v>17.28516090349815</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.15134418404072</v>
+        <v>7.338516561755529</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84175710689192</v>
+        <v>22.69794125892972</v>
       </c>
       <c r="C3">
-        <v>7.897022757154873</v>
+        <v>12.73230649209058</v>
       </c>
       <c r="D3">
-        <v>5.904646904057813</v>
+        <v>6.650405784795657</v>
       </c>
       <c r="E3">
-        <v>10.65024970330101</v>
+        <v>6.751823078139275</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54.30185226203805</v>
+        <v>59.82316025275038</v>
       </c>
       <c r="H3">
-        <v>19.98838200967699</v>
+        <v>16.68145655852003</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.13800711783105</v>
+        <v>7.08108527048073</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.58960932346353</v>
+        <v>21.56471902596478</v>
       </c>
       <c r="C4">
-        <v>7.640293370363234</v>
+        <v>12.21557857739583</v>
       </c>
       <c r="D4">
-        <v>5.836955220237453</v>
+        <v>6.316266890659093</v>
       </c>
       <c r="E4">
-        <v>10.66216224908986</v>
+        <v>6.756866914710451</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>53.7948506004724</v>
+        <v>57.71040530213888</v>
       </c>
       <c r="H4">
-        <v>19.9459583214288</v>
+        <v>16.3183312666402</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.13202632496074</v>
+        <v>6.924888245841469</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.48767993894712</v>
+        <v>21.08975615175321</v>
       </c>
       <c r="C5">
-        <v>7.532614652266297</v>
+        <v>11.99962597421178</v>
       </c>
       <c r="D5">
-        <v>5.809646447545986</v>
+        <v>6.191495172114651</v>
       </c>
       <c r="E5">
-        <v>10.66728877307331</v>
+        <v>6.759631185093792</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>53.59100702358845</v>
+        <v>56.84504972726842</v>
       </c>
       <c r="H5">
-        <v>19.92978142798462</v>
+        <v>16.17228010989362</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.13014561440271</v>
+        <v>6.861752056062905</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.47080915925645</v>
+        <v>21.01008846685085</v>
       </c>
       <c r="C6">
-        <v>7.51455177742906</v>
+        <v>11.963441205688</v>
       </c>
       <c r="D6">
-        <v>5.805129678281349</v>
+        <v>6.171728228387753</v>
       </c>
       <c r="E6">
-        <v>10.66815645435867</v>
+        <v>6.760132080490712</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>53.55733260610347</v>
+        <v>56.70111224673015</v>
       </c>
       <c r="H6">
-        <v>19.92716250155535</v>
+        <v>16.14814577819255</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.12986696400514</v>
+        <v>6.851300964831329</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.58823111876956</v>
+        <v>21.55836706235091</v>
       </c>
       <c r="C7">
-        <v>7.638853481806922</v>
+        <v>12.21268800302498</v>
       </c>
       <c r="D7">
-        <v>5.836585754268219</v>
+        <v>6.314393893343722</v>
       </c>
       <c r="E7">
-        <v>10.6622302858734</v>
+        <v>6.756901366464361</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>53.79208999933023</v>
+        <v>57.69875174827325</v>
       </c>
       <c r="H7">
-        <v>19.94573564963491</v>
+        <v>16.31635372761438</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.13199870642287</v>
+        <v>6.924034615697268</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.1131724747924</v>
+        <v>23.86275671958874</v>
       </c>
       <c r="C8">
-        <v>8.160355915503265</v>
+        <v>13.26544082908631</v>
       </c>
       <c r="D8">
-        <v>5.977712586586239</v>
+        <v>6.993892056551365</v>
       </c>
       <c r="E8">
-        <v>10.63846846926343</v>
+        <v>6.748956198700308</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>54.85165770685717</v>
+        <v>62.06112570113736</v>
       </c>
       <c r="H8">
-        <v>20.03743559285706</v>
+        <v>17.07544642204846</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.14628810517802</v>
+        <v>7.249391516950514</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.15627642076233</v>
+        <v>27.98382233870518</v>
       </c>
       <c r="C9">
-        <v>9.082701905637318</v>
+        <v>15.16537316359849</v>
       </c>
       <c r="D9">
-        <v>6.260188039079089</v>
+        <v>8.210442057318284</v>
       </c>
       <c r="E9">
-        <v>10.60047249549526</v>
+        <v>6.758405644609186</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>56.99869394584235</v>
+        <v>70.45007938772247</v>
       </c>
       <c r="H9">
-        <v>20.25185831349845</v>
+        <v>18.62402523180321</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.1917604400492</v>
+        <v>7.90077360220721</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.92177709249442</v>
+        <v>30.7875582746346</v>
       </c>
       <c r="C10">
-        <v>9.697132702895352</v>
+        <v>16.46827750959065</v>
       </c>
       <c r="D10">
-        <v>6.468922681686521</v>
+        <v>9.040135401133007</v>
       </c>
       <c r="E10">
-        <v>10.57781349160549</v>
+        <v>6.783095370796309</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>58.60400129078809</v>
+        <v>76.51688129582465</v>
       </c>
       <c r="H10">
-        <v>20.43000850298402</v>
+        <v>19.80100480890765</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.23568992052234</v>
+        <v>8.386592534995463</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.2679978087052</v>
+        <v>32.01944852128528</v>
       </c>
       <c r="C11">
-        <v>9.962631666667662</v>
+        <v>17.04307055305307</v>
       </c>
       <c r="D11">
-        <v>6.56367581936895</v>
+        <v>9.405363577828229</v>
       </c>
       <c r="E11">
-        <v>10.56864958763318</v>
+        <v>6.798813420002384</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>59.33732105447195</v>
+        <v>79.26243046701384</v>
       </c>
       <c r="H11">
-        <v>20.51539998857455</v>
+        <v>20.34643648985725</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.25792575531729</v>
+        <v>8.60934555083514</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.39867053296141</v>
+        <v>32.48017273597144</v>
       </c>
       <c r="C12">
-        <v>10.06113704074334</v>
+        <v>17.25839345801681</v>
       </c>
       <c r="D12">
-        <v>6.599490454199526</v>
+        <v>9.542076148214099</v>
       </c>
       <c r="E12">
-        <v>10.56534416174989</v>
+        <v>6.80547135105154</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.61520139521167</v>
+        <v>80.30098778481268</v>
       </c>
       <c r="H12">
-        <v>20.54834798759135</v>
+        <v>20.55461457158455</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.26666622311337</v>
+        <v>8.693989880515256</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.3705493194045</v>
+        <v>32.38119521324928</v>
       </c>
       <c r="C13">
-        <v>10.040012831098</v>
+        <v>17.2121195653698</v>
       </c>
       <c r="D13">
-        <v>6.591780658115949</v>
+        <v>9.512700564567902</v>
       </c>
       <c r="E13">
-        <v>10.5660487130038</v>
+        <v>6.804005000317383</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>59.55535046602974</v>
+        <v>80.07734734073037</v>
       </c>
       <c r="H13">
-        <v>20.5412250497516</v>
+        <v>20.50970312494154</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.26476962585001</v>
+        <v>8.675746276364764</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.27875781991952</v>
+        <v>32.05746501098254</v>
       </c>
       <c r="C14">
-        <v>9.970776605874995</v>
+        <v>17.06083064908126</v>
       </c>
       <c r="D14">
-        <v>6.566623848044416</v>
+        <v>9.416641874972791</v>
       </c>
       <c r="E14">
-        <v>10.56837434497753</v>
+        <v>6.79934664936091</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>59.36018008694853</v>
+        <v>79.34788915853937</v>
       </c>
       <c r="H14">
-        <v>20.51809845412576</v>
+        <v>20.36352929344728</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.25863844284038</v>
+        <v>8.616303103420872</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.2224722658466</v>
+        <v>31.85843609888929</v>
       </c>
       <c r="C15">
-        <v>9.928102137885743</v>
+        <v>16.96786505450613</v>
       </c>
       <c r="D15">
-        <v>6.551204858596214</v>
+        <v>9.357601166126424</v>
       </c>
       <c r="E15">
-        <v>10.56982032439535</v>
+        <v>6.796587134955896</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>59.24064972521022</v>
+        <v>78.90096216329103</v>
       </c>
       <c r="H15">
-        <v>20.50401204056157</v>
+        <v>20.27421348849733</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.25492450710225</v>
+        <v>8.579932185893984</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.89909777154073</v>
+        <v>30.70621573875896</v>
       </c>
       <c r="C16">
-        <v>9.67949810929891</v>
+        <v>16.4303722606978</v>
       </c>
       <c r="D16">
-        <v>6.462723056915842</v>
+        <v>9.016034754176523</v>
       </c>
       <c r="E16">
-        <v>10.57843541345963</v>
+        <v>6.782163450412269</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.55611699849309</v>
+        <v>76.33723787863742</v>
       </c>
       <c r="H16">
-        <v>20.42451438163734</v>
+        <v>19.76557620504151</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.23428177481661</v>
+        <v>8.372073268051755</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70009786389802</v>
+        <v>29.98854195239215</v>
       </c>
       <c r="C17">
-        <v>9.523384682573115</v>
+        <v>16.09620558662075</v>
       </c>
       <c r="D17">
-        <v>6.408363655295359</v>
+        <v>8.803478304641706</v>
       </c>
       <c r="E17">
-        <v>10.58401363735176</v>
+        <v>6.774504877544844</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.13678056328501</v>
+        <v>74.76137817954033</v>
       </c>
       <c r="H17">
-        <v>20.37685012085921</v>
+        <v>19.45622660996507</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.22219250020277</v>
+        <v>8.245028502683375</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.58545739460933</v>
+        <v>29.5716225296605</v>
       </c>
       <c r="C18">
-        <v>9.432274609103814</v>
+        <v>15.90229977787122</v>
       </c>
       <c r="D18">
-        <v>6.377080753013968</v>
+        <v>8.680061762899072</v>
       </c>
       <c r="E18">
-        <v>10.58732972736269</v>
+        <v>6.770518110912495</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>57.89589184514629</v>
+        <v>73.85356717782541</v>
       </c>
       <c r="H18">
-        <v>20.34984523095169</v>
+        <v>19.27922438919834</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.21545128829836</v>
+        <v>8.172116740886262</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.5466155574767</v>
+        <v>29.42973717550073</v>
       </c>
       <c r="C19">
-        <v>9.401200630016172</v>
+        <v>15.83634784051889</v>
       </c>
       <c r="D19">
-        <v>6.366487178797128</v>
+        <v>8.638071258665216</v>
       </c>
       <c r="E19">
-        <v>10.58847097796993</v>
+        <v>6.769238369724365</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>57.81439078300852</v>
+        <v>73.54593148858551</v>
       </c>
       <c r="H19">
-        <v>20.34077270390864</v>
+        <v>19.21944895439725</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.21320538209195</v>
+        <v>8.147456883551618</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.72130154887223</v>
+        <v>30.06536390216345</v>
       </c>
       <c r="C20">
-        <v>9.540139757946655</v>
+        <v>16.13195278549006</v>
       </c>
       <c r="D20">
-        <v>6.414152322566021</v>
+        <v>8.826224216061547</v>
       </c>
       <c r="E20">
-        <v>10.58340868326862</v>
+        <v>6.775276444539166</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>58.18139017604523</v>
+        <v>74.92927224351847</v>
       </c>
       <c r="H20">
-        <v>20.38188168853782</v>
+        <v>19.48906022175643</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.22345748514905</v>
+        <v>8.258535752504299</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.3057320857661</v>
+        <v>32.15270455333811</v>
       </c>
       <c r="C21">
-        <v>9.991168275263588</v>
+        <v>17.10532922731486</v>
       </c>
       <c r="D21">
-        <v>6.57401510221282</v>
+        <v>9.444898408030754</v>
       </c>
       <c r="E21">
-        <v>10.56768677721569</v>
+        <v>6.800695239665369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.41750322809403</v>
+        <v>79.56217006902116</v>
       </c>
       <c r="H21">
-        <v>20.52487479665753</v>
+        <v>20.40641781807509</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.26043065939395</v>
+        <v>8.633754613159233</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.68510309035037</v>
+        <v>33.4835854116018</v>
       </c>
       <c r="C22">
-        <v>10.27408404224543</v>
+        <v>17.72800035317167</v>
       </c>
       <c r="D22">
-        <v>6.678092015643617</v>
+        <v>9.840056143102856</v>
       </c>
       <c r="E22">
-        <v>10.55837198849371</v>
+        <v>6.82145642494507</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.22635881459899</v>
+        <v>82.58417843207056</v>
       </c>
       <c r="H22">
-        <v>20.62188977916603</v>
+        <v>21.01563743882662</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.28645942145894</v>
+        <v>8.900727202659521</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.48290805575629</v>
+        <v>32.77613219979341</v>
       </c>
       <c r="C23">
-        <v>10.12417662384642</v>
+        <v>17.39681229945607</v>
       </c>
       <c r="D23">
-        <v>6.622592943523515</v>
+        <v>9.629932546996557</v>
       </c>
       <c r="E23">
-        <v>10.56325550320209</v>
+        <v>6.809973953936975</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.7946487193881</v>
+        <v>80.9714133484586</v>
       </c>
       <c r="H23">
-        <v>20.56978999092454</v>
+        <v>20.68951699790352</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.27239805765487</v>
+        <v>8.748732560741114</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71171607686427</v>
+        <v>30.03064618833029</v>
       </c>
       <c r="C24">
-        <v>9.532569017955648</v>
+        <v>16.11579706613248</v>
       </c>
       <c r="D24">
-        <v>6.411535359666</v>
+        <v>8.815944585955474</v>
       </c>
       <c r="E24">
-        <v>10.58368184322423</v>
+        <v>6.774926327043858</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>58.16122154861265</v>
+        <v>74.8533730974405</v>
       </c>
       <c r="H24">
-        <v>20.37960567632684</v>
+        <v>19.47421352145466</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.22288493396963</v>
+        <v>8.252428728990163</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.87359514000309</v>
+        <v>26.90981680739799</v>
       </c>
       <c r="C25">
-        <v>8.844164125064346</v>
+        <v>14.66836281362391</v>
       </c>
       <c r="D25">
-        <v>6.183397690328204</v>
+        <v>7.893111185706414</v>
       </c>
       <c r="E25">
-        <v>10.60982923827612</v>
+        <v>6.75292818630867</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.41192963636967</v>
+        <v>68.19888111154103</v>
       </c>
       <c r="H25">
-        <v>20.19019118727472</v>
+        <v>18.19853370563713</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.17760124361842</v>
+        <v>7.723276967499912</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.45961926563312</v>
+        <v>15.4707929282239</v>
       </c>
       <c r="C2">
-        <v>13.53934617802315</v>
+        <v>7.742949078654584</v>
       </c>
       <c r="D2">
-        <v>7.169936176008651</v>
+        <v>7.013575033066333</v>
       </c>
       <c r="E2">
-        <v>6.748413553749268</v>
+        <v>7.268072039118327</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.23230064522946</v>
+        <v>39.61889544152999</v>
       </c>
       <c r="H2">
-        <v>17.28516090349815</v>
+        <v>2.62770639239208</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.526880202808577</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.81760794286835</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.87386910305892</v>
       </c>
       <c r="L2">
-        <v>7.338516561755529</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.54712472478569</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.391495923448048</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>14.37994199613829</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.69794125892972</v>
+        <v>14.52792380703347</v>
       </c>
       <c r="C3">
-        <v>12.73230649209058</v>
+        <v>7.258301927247082</v>
       </c>
       <c r="D3">
-        <v>6.650405784795657</v>
+        <v>6.53042051702709</v>
       </c>
       <c r="E3">
-        <v>6.751823078139275</v>
+        <v>6.977765470203888</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.82316025275038</v>
+        <v>38.40863622139714</v>
       </c>
       <c r="H3">
-        <v>16.68145655852003</v>
+        <v>2.862629758315863</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.726177297428015</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.66682371920872</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.57683238711783</v>
       </c>
       <c r="L3">
-        <v>7.08108527048073</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.71937509271943</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.083258072678865</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>14.48914204630233</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56471902596478</v>
+        <v>13.91676378909641</v>
       </c>
       <c r="C4">
-        <v>12.21557857739583</v>
+        <v>6.948669650136422</v>
       </c>
       <c r="D4">
-        <v>6.316266890659093</v>
+        <v>6.239156713744521</v>
       </c>
       <c r="E4">
-        <v>6.756866914710451</v>
+        <v>6.792106888786771</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.71040530213888</v>
+        <v>37.65494012072104</v>
       </c>
       <c r="H4">
-        <v>16.3183312666402</v>
+        <v>3.011984501897138</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.853488333296187</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.5759205276286</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.39427434083953</v>
       </c>
       <c r="L4">
-        <v>6.924888245841469</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.18086961030731</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.887193869269885</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>14.55696625481857</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.08975615175321</v>
+        <v>13.6534800241061</v>
       </c>
       <c r="C5">
-        <v>11.99962597421178</v>
+        <v>6.824845459885862</v>
       </c>
       <c r="D5">
-        <v>6.191495172114651</v>
+        <v>6.127817192119103</v>
       </c>
       <c r="E5">
-        <v>6.759631185093792</v>
+        <v>6.712731375285095</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.84504972726842</v>
+        <v>37.32446541028467</v>
       </c>
       <c r="H5">
-        <v>16.17228010989362</v>
+        <v>3.074594666585213</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.909259115854219</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.53533624388209</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.31080919576095</v>
       </c>
       <c r="L5">
-        <v>6.861752056062905</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.98240376583185</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.805915240963553</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>14.58243329320428</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01008846685085</v>
+        <v>13.6016653607477</v>
       </c>
       <c r="C6">
-        <v>11.963441205688</v>
+        <v>6.810705944284036</v>
       </c>
       <c r="D6">
-        <v>6.171728228387753</v>
+        <v>6.109157774581768</v>
       </c>
       <c r="E6">
-        <v>6.760132080490712</v>
+        <v>6.697140396315697</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.70111224673015</v>
+        <v>37.24373468724667</v>
       </c>
       <c r="H6">
-        <v>16.14814577819255</v>
+        <v>3.085607372349603</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.921957294671061</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.52376312261593</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.28586129654209</v>
       </c>
       <c r="L6">
-        <v>6.851300964831329</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.94732820413165</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.792644464648177</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>14.58377991273592</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55836706235091</v>
+        <v>13.89289277898772</v>
       </c>
       <c r="C7">
-        <v>12.21268800302498</v>
+        <v>6.964642067416015</v>
       </c>
       <c r="D7">
-        <v>6.314393893343722</v>
+        <v>6.237599133901417</v>
       </c>
       <c r="E7">
-        <v>6.756901366464361</v>
+        <v>6.784851965320369</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.69875174827325</v>
+        <v>37.58096185703606</v>
       </c>
       <c r="H7">
-        <v>16.31635372761438</v>
+        <v>3.014268807228713</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.863158754056339</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.5621615063315</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.36301926997997</v>
       </c>
       <c r="L7">
-        <v>6.924034615697268</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.17222259289906</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.886979689301342</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>14.54944953207162</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.86275671958874</v>
+        <v>15.12740664813752</v>
       </c>
       <c r="C8">
-        <v>13.26544082908631</v>
+        <v>7.599947776241186</v>
       </c>
       <c r="D8">
-        <v>6.993892056551365</v>
+        <v>6.850328716171132</v>
       </c>
       <c r="E8">
-        <v>6.748956198700308</v>
+        <v>7.161738058145181</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.06112570113736</v>
+        <v>39.11546627608433</v>
       </c>
       <c r="H8">
-        <v>17.07544642204846</v>
+        <v>2.709483961482308</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.606036022869224</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.74811512803317</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.73243229133464</v>
       </c>
       <c r="L8">
-        <v>7.249391516950514</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.26111488489226</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.287795164012703</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>14.40723755718047</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.98382233870518</v>
+        <v>17.32219588935151</v>
       </c>
       <c r="C9">
-        <v>15.16537316359849</v>
+        <v>8.722716772692443</v>
       </c>
       <c r="D9">
-        <v>8.210442057318284</v>
+        <v>7.964009862223671</v>
       </c>
       <c r="E9">
-        <v>6.758405644609186</v>
+        <v>7.851491975134432</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.45007938772247</v>
+        <v>42.14437718712167</v>
       </c>
       <c r="H9">
-        <v>18.62402523180321</v>
+        <v>2.148901443378123</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.125538027050304</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.14865977750312</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.5061740189456</v>
       </c>
       <c r="L9">
-        <v>7.90077360220721</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.16688810397624</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.015822570227849</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>14.14799932482562</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.7875582746346</v>
+        <v>18.69816368878096</v>
       </c>
       <c r="C10">
-        <v>16.46827750959065</v>
+        <v>9.535186417150955</v>
       </c>
       <c r="D10">
-        <v>9.040135401133007</v>
+        <v>8.702803788117111</v>
       </c>
       <c r="E10">
-        <v>6.783095370796309</v>
+        <v>8.171691345923156</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.51688129582465</v>
+        <v>43.96616104619759</v>
       </c>
       <c r="H10">
-        <v>19.80100480890765</v>
+        <v>1.795135405405176</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.80880609672912</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.38357038627084</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.92850264610434</v>
       </c>
       <c r="L10">
-        <v>8.386592534995463</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.39380321743906</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.377390663503482</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>13.92291582473183</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.01944852128528</v>
+        <v>18.68129902844204</v>
       </c>
       <c r="C11">
-        <v>17.04307055305307</v>
+        <v>10.23335505507336</v>
       </c>
       <c r="D11">
-        <v>9.405363577828229</v>
+        <v>9.016011924345154</v>
       </c>
       <c r="E11">
-        <v>6.798813420002384</v>
+        <v>7.178943476368997</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.26243046701384</v>
+        <v>42.12794217019291</v>
       </c>
       <c r="H11">
-        <v>20.34643648985725</v>
+        <v>2.791043203508466</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.752083541818469</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.95026995192348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.9748714882986</v>
       </c>
       <c r="L11">
-        <v>8.60934555083514</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.6759904645358</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.388037803335289</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>13.53163211503278</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.48017273597144</v>
+        <v>18.40415675199599</v>
       </c>
       <c r="C12">
-        <v>17.25839345801681</v>
+        <v>10.64276326424737</v>
       </c>
       <c r="D12">
-        <v>9.542076148214099</v>
+        <v>9.129878019280522</v>
       </c>
       <c r="E12">
-        <v>6.80547135105154</v>
+        <v>6.518601821605595</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.30098778481268</v>
+        <v>40.25770587773309</v>
       </c>
       <c r="H12">
-        <v>20.55461457158455</v>
+        <v>4.175817869362723</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.747509695588673</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.54893603924426</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.12210260977793</v>
       </c>
       <c r="L12">
-        <v>8.693989880515256</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.67067946017085</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.515372351635447</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>13.28370225737903</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.38119521324928</v>
+        <v>17.87687257289007</v>
       </c>
       <c r="C13">
-        <v>17.2121195653698</v>
+        <v>10.8872966973174</v>
       </c>
       <c r="D13">
-        <v>9.512700564567902</v>
+        <v>9.100612323670365</v>
       </c>
       <c r="E13">
-        <v>6.804005000317383</v>
+        <v>6.124535086445676</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>80.07734734073037</v>
+        <v>38.1161979122919</v>
       </c>
       <c r="H13">
-        <v>20.50970312494154</v>
+        <v>5.605913413794753</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.798571505051709</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.12552738524351</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.2469122192579</v>
       </c>
       <c r="L13">
-        <v>8.675746276364764</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.4372022145446</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.686843341907548</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>13.12057821917072</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.05746501098254</v>
+        <v>17.3821309829865</v>
       </c>
       <c r="C14">
-        <v>17.06083064908126</v>
+        <v>10.99286586141002</v>
       </c>
       <c r="D14">
-        <v>9.416641874972791</v>
+        <v>9.015089554440122</v>
       </c>
       <c r="E14">
-        <v>6.79934664936091</v>
+        <v>6.040462992673041</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.34788915853937</v>
+        <v>36.46189629036245</v>
       </c>
       <c r="H14">
-        <v>20.36352929344728</v>
+        <v>6.619670051472891</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.862287613653044</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.81607552966629</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.61927915286536</v>
       </c>
       <c r="L14">
-        <v>8.616303103420872</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.16620632734879</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.151753390147784</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>13.04750654797544</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.85843609888929</v>
+        <v>17.20035836620853</v>
       </c>
       <c r="C15">
-        <v>16.96786505450613</v>
+        <v>10.98917395352014</v>
       </c>
       <c r="D15">
-        <v>9.357601166126424</v>
+        <v>8.963321887704158</v>
       </c>
       <c r="E15">
-        <v>6.796587134955896</v>
+        <v>6.039815382619508</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.90096216329103</v>
+        <v>35.97937300699857</v>
       </c>
       <c r="H15">
-        <v>20.27421348849733</v>
+        <v>6.856706850597699</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.894882286033977</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.73249705797825</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.45298719785912</v>
       </c>
       <c r="L15">
-        <v>8.579932185893984</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.048510776223</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.027184560615453</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>13.04321041618484</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.70621573875896</v>
+        <v>16.69002697223268</v>
       </c>
       <c r="C16">
-        <v>16.4303722606978</v>
+        <v>10.63757303836923</v>
       </c>
       <c r="D16">
-        <v>9.016034754176523</v>
+        <v>8.665467878448869</v>
       </c>
       <c r="E16">
-        <v>6.782163450412269</v>
+        <v>5.947694088090633</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.33723787863742</v>
+        <v>35.50269980593411</v>
       </c>
       <c r="H16">
-        <v>19.76557620504151</v>
+        <v>6.669388290666962</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.024976772450073</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.70339684120086</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.42140156302083</v>
       </c>
       <c r="L16">
-        <v>8.372073268051755</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.57319256039612</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.006106626796654</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>13.16800102974316</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.98854195239215</v>
+        <v>16.56736929083951</v>
       </c>
       <c r="C17">
-        <v>16.09620558662075</v>
+        <v>10.30223655602696</v>
       </c>
       <c r="D17">
-        <v>8.803478304641706</v>
+        <v>8.479708600132009</v>
       </c>
       <c r="E17">
-        <v>6.774504877544844</v>
+        <v>5.88420907233828</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>74.76137817954033</v>
+        <v>36.04037961699541</v>
       </c>
       <c r="H17">
-        <v>19.45622660996507</v>
+        <v>5.95967489137791</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.091959343736902</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.84681314001524</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.73083340834532</v>
       </c>
       <c r="L17">
-        <v>8.245028502683375</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.35203386098746</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.2658587873928</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>13.30024506624595</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.5716225296605</v>
+        <v>16.78479515207819</v>
       </c>
       <c r="C18">
-        <v>15.90229977787122</v>
+        <v>9.93515911028015</v>
       </c>
       <c r="D18">
-        <v>8.680061762899072</v>
+        <v>8.373269963709907</v>
       </c>
       <c r="E18">
-        <v>6.770518110912495</v>
+        <v>6.035992311827308</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>73.85356717782541</v>
+        <v>37.55827709678422</v>
       </c>
       <c r="H18">
-        <v>19.27922438919834</v>
+        <v>4.74979901670745</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.099092565744917</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.16439151620269</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.39631355292611</v>
       </c>
       <c r="L18">
-        <v>8.172116740886262</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.33596132946992</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.860279768725393</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.47164103440721</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.42973717550073</v>
+        <v>17.22330064153791</v>
       </c>
       <c r="C19">
-        <v>15.83634784051889</v>
+        <v>9.607528375560614</v>
       </c>
       <c r="D19">
-        <v>8.638071258665216</v>
+        <v>8.339848851403374</v>
       </c>
       <c r="E19">
-        <v>6.769238369724365</v>
+        <v>6.603546530116779</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>73.54593148858551</v>
+        <v>39.62575777023429</v>
       </c>
       <c r="H19">
-        <v>19.21944895439725</v>
+        <v>3.336684554036812</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.073471723581306</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.57813283039308</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.26147312911695</v>
       </c>
       <c r="L19">
-        <v>8.147456883551618</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.47872122962996</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.741617880582791</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.67258510761377</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.06536390216345</v>
+        <v>18.29412995111615</v>
       </c>
       <c r="C20">
-        <v>16.13195278549006</v>
+        <v>9.370407810925418</v>
       </c>
       <c r="D20">
-        <v>8.826224216061547</v>
+        <v>8.513641229654965</v>
       </c>
       <c r="E20">
-        <v>6.775276444539166</v>
+        <v>8.066314965344734</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>74.92927224351847</v>
+        <v>43.29087626773842</v>
       </c>
       <c r="H20">
-        <v>19.48906022175643</v>
+        <v>1.889828605675715</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.922486287646134</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.28035569571533</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.72527290221005</v>
       </c>
       <c r="L20">
-        <v>8.258535752504299</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.06594289277391</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.280404529900725</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.95740207891795</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.15270455333811</v>
+        <v>19.41857326741339</v>
       </c>
       <c r="C21">
-        <v>17.10532922731486</v>
+        <v>9.907404133937311</v>
       </c>
       <c r="D21">
-        <v>9.444898408030754</v>
+        <v>9.057384039920294</v>
       </c>
       <c r="E21">
-        <v>6.800695239665369</v>
+        <v>8.532966575413733</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.56217006902116</v>
+        <v>45.16885543488968</v>
       </c>
       <c r="H21">
-        <v>20.40641781807509</v>
+        <v>1.572228322342313</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.669303663837034</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.56531153013263</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.26638437975102</v>
       </c>
       <c r="L21">
-        <v>8.633754613159233</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.01038811028943</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.757626517029824</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>13.84379541716164</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.4835854116018</v>
+        <v>20.10775974982813</v>
       </c>
       <c r="C22">
-        <v>17.72800035317167</v>
+        <v>10.25200251513309</v>
       </c>
       <c r="D22">
-        <v>9.840056143102856</v>
+        <v>9.398847174087527</v>
       </c>
       <c r="E22">
-        <v>6.82145642494507</v>
+        <v>8.761747546192829</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.58417843207056</v>
+        <v>46.29906188635513</v>
       </c>
       <c r="H22">
-        <v>21.01563743882662</v>
+        <v>1.733690637092719</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.504844939310767</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.73716236150864</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.5879698490004</v>
       </c>
       <c r="L22">
-        <v>8.900727202659521</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.593089450699</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.990832268448743</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>13.76219745006009</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.77613219979341</v>
+        <v>19.76037701832856</v>
       </c>
       <c r="C23">
-        <v>17.39681229945607</v>
+        <v>10.05383310608065</v>
       </c>
       <c r="D23">
-        <v>9.629932546996557</v>
+        <v>9.217988049005633</v>
       </c>
       <c r="E23">
-        <v>6.809973953936975</v>
+        <v>8.646131799963927</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>80.9714133484586</v>
+        <v>45.76563850453493</v>
       </c>
       <c r="H23">
-        <v>20.68951699790352</v>
+        <v>1.636913813218065</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.576185706124666</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.65952328697589</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.44855454552507</v>
       </c>
       <c r="L23">
-        <v>8.748732560741114</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.2892682369656</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.866141517671771</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>13.81436858039899</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.03064618833029</v>
+        <v>18.35905421294475</v>
       </c>
       <c r="C24">
-        <v>16.11579706613248</v>
+        <v>9.306873264264459</v>
       </c>
       <c r="D24">
-        <v>8.815944585955474</v>
+        <v>8.505279844256089</v>
       </c>
       <c r="E24">
-        <v>6.774926327043858</v>
+        <v>8.185791191713127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>74.8533730974405</v>
+        <v>43.60643982543746</v>
       </c>
       <c r="H24">
-        <v>19.47421352145466</v>
+        <v>1.867318322758788</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.900985642332785</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.34605309234859</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.86875900076985</v>
       </c>
       <c r="L24">
-        <v>8.252428728990163</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.08062196778525</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.380690058189511</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.9996913600775</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.90981680739799</v>
+        <v>16.72540206136389</v>
       </c>
       <c r="C25">
-        <v>14.66836281362391</v>
+        <v>8.455709190623462</v>
       </c>
       <c r="D25">
-        <v>7.893111185706414</v>
+        <v>7.676493231258544</v>
       </c>
       <c r="E25">
-        <v>6.75292818630867</v>
+        <v>7.661433910189521</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.19888111154103</v>
+        <v>41.22300144619333</v>
       </c>
       <c r="H25">
-        <v>18.19853370563713</v>
+        <v>2.298820857125467</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.268200647435481</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.01619193248132</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.24564167009803</v>
       </c>
       <c r="L25">
-        <v>7.723276967499912</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.66809606805101</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.826703772389791</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>14.20391397284183</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.4707929282239</v>
+        <v>14.69712215612939</v>
       </c>
       <c r="C2">
-        <v>7.742949078654584</v>
+        <v>8.120778813431745</v>
       </c>
       <c r="D2">
-        <v>7.013575033066333</v>
+        <v>7.022367705447735</v>
       </c>
       <c r="E2">
-        <v>7.268072039118327</v>
+        <v>7.072814908262605</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.61889544152999</v>
+        <v>36.41355531112202</v>
       </c>
       <c r="H2">
-        <v>2.62770639239208</v>
+        <v>2.484139110902876</v>
       </c>
       <c r="I2">
-        <v>3.526880202808577</v>
+        <v>3.352733208445111</v>
       </c>
       <c r="J2">
-        <v>12.81760794286835</v>
+        <v>12.36397558137591</v>
       </c>
       <c r="K2">
-        <v>20.87386910305892</v>
+        <v>19.37899247500802</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.5339853814328</v>
       </c>
       <c r="M2">
-        <v>12.54712472478569</v>
+        <v>13.24464972131889</v>
       </c>
       <c r="N2">
-        <v>7.391495923448048</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.41958252265468</v>
       </c>
       <c r="P2">
-        <v>14.37994199613829</v>
+        <v>7.538618307278849</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.91450342664239</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.52792380703347</v>
+        <v>13.8155797349048</v>
       </c>
       <c r="C3">
-        <v>7.258301927247082</v>
+        <v>7.557340070221283</v>
       </c>
       <c r="D3">
-        <v>6.53042051702709</v>
+        <v>6.540104395735699</v>
       </c>
       <c r="E3">
-        <v>6.977765470203888</v>
+        <v>6.818061776281749</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.40863622139714</v>
+        <v>35.51168148966533</v>
       </c>
       <c r="H3">
-        <v>2.862629758315863</v>
+        <v>2.69742123913435</v>
       </c>
       <c r="I3">
-        <v>3.726177297428015</v>
+        <v>3.526060644833907</v>
       </c>
       <c r="J3">
-        <v>12.66682371920872</v>
+        <v>12.21900837573873</v>
       </c>
       <c r="K3">
-        <v>20.57683238711783</v>
+        <v>19.19601142978894</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.51564607212961</v>
       </c>
       <c r="M3">
-        <v>11.71937509271943</v>
+        <v>13.00176659320294</v>
       </c>
       <c r="N3">
-        <v>7.083258072678865</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.61993684440235</v>
       </c>
       <c r="P3">
-        <v>14.48914204630233</v>
+        <v>7.237148198424971</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.04524031874496</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.91676378909641</v>
+        <v>13.24265617685594</v>
       </c>
       <c r="C4">
-        <v>6.948669650136422</v>
+        <v>7.195896463592351</v>
       </c>
       <c r="D4">
-        <v>6.239156713744521</v>
+        <v>6.246259232735666</v>
       </c>
       <c r="E4">
-        <v>6.792106888786771</v>
+        <v>6.655161795164919</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.65494012072104</v>
+        <v>34.95502069546662</v>
       </c>
       <c r="H4">
-        <v>3.011984501897138</v>
+        <v>2.833148934546759</v>
       </c>
       <c r="I4">
-        <v>3.853488333296187</v>
+        <v>3.637177013577116</v>
       </c>
       <c r="J4">
-        <v>12.5759205276286</v>
+        <v>12.12905945902667</v>
       </c>
       <c r="K4">
-        <v>20.39427434083953</v>
+        <v>19.08319118784568</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.49976261001824</v>
       </c>
       <c r="M4">
-        <v>11.18086961030731</v>
+        <v>12.86821820160906</v>
       </c>
       <c r="N4">
-        <v>6.887193869269885</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.09960305706081</v>
       </c>
       <c r="P4">
-        <v>14.55696625481857</v>
+        <v>7.045772155278637</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.12620869767025</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.6534800241061</v>
+        <v>12.99527076096794</v>
       </c>
       <c r="C5">
-        <v>6.824845459885862</v>
+        <v>7.050473370603203</v>
       </c>
       <c r="D5">
-        <v>6.127817192119103</v>
+        <v>6.13488228443899</v>
       </c>
       <c r="E5">
-        <v>6.712731375285095</v>
+        <v>6.585431678754923</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.32446541028467</v>
+        <v>34.70781356605167</v>
       </c>
       <c r="H5">
-        <v>3.074594666585213</v>
+        <v>2.890084903310715</v>
       </c>
       <c r="I5">
-        <v>3.909259115854219</v>
+        <v>3.686689385591657</v>
       </c>
       <c r="J5">
-        <v>12.53533624388209</v>
+        <v>12.08836712989551</v>
       </c>
       <c r="K5">
-        <v>20.31080919576095</v>
+        <v>19.02874596038493</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.48488967646558</v>
       </c>
       <c r="M5">
-        <v>10.98240376583185</v>
+        <v>12.81244948440311</v>
       </c>
       <c r="N5">
-        <v>6.805915240963553</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.87853631861247</v>
       </c>
       <c r="P5">
-        <v>14.58243329320428</v>
+        <v>6.966531574671716</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.15743928607084</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.6016653607477</v>
+        <v>12.94635499216434</v>
       </c>
       <c r="C6">
-        <v>6.810705944284036</v>
+        <v>7.033155694489328</v>
       </c>
       <c r="D6">
-        <v>6.109157774581768</v>
+        <v>6.116215924068082</v>
       </c>
       <c r="E6">
-        <v>6.697140396315697</v>
+        <v>6.571630037254223</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>37.24373468724667</v>
+        <v>34.64249505876549</v>
       </c>
       <c r="H6">
-        <v>3.085607372349603</v>
+        <v>2.900110805294134</v>
       </c>
       <c r="I6">
-        <v>3.921957294671061</v>
+        <v>3.698883838761116</v>
       </c>
       <c r="J6">
-        <v>12.52376312261593</v>
+        <v>12.07692696205942</v>
       </c>
       <c r="K6">
-        <v>20.28586129654209</v>
+        <v>19.00947956844005</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.47352473369153</v>
       </c>
       <c r="M6">
-        <v>10.94732820413165</v>
+        <v>12.79679812796373</v>
       </c>
       <c r="N6">
-        <v>6.792644464648177</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.8393923844963</v>
       </c>
       <c r="P6">
-        <v>14.58377991273592</v>
+        <v>6.953591997903851</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.16025890209854</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.89289277898772</v>
+        <v>13.21432414931244</v>
       </c>
       <c r="C7">
-        <v>6.964642067416015</v>
+        <v>7.201566882719248</v>
       </c>
       <c r="D7">
-        <v>6.237599133901417</v>
+        <v>6.244664352206151</v>
       </c>
       <c r="E7">
-        <v>6.784851965320369</v>
+        <v>6.65044418453528</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.58096185703606</v>
+        <v>34.95391939903513</v>
       </c>
       <c r="H7">
-        <v>3.014268807228713</v>
+        <v>2.835933556162999</v>
       </c>
       <c r="I7">
-        <v>3.863158754056339</v>
+        <v>3.648901392857826</v>
       </c>
       <c r="J7">
-        <v>12.5621615063315</v>
+        <v>12.06579541935216</v>
       </c>
       <c r="K7">
-        <v>20.36301926997997</v>
+        <v>19.04185348846676</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.46500898265681</v>
       </c>
       <c r="M7">
-        <v>11.17222259289906</v>
+        <v>12.8404626442815</v>
       </c>
       <c r="N7">
-        <v>6.886979689301342</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.08373756771026</v>
       </c>
       <c r="P7">
-        <v>14.54944953207162</v>
+        <v>7.044400148648912</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.11685471326494</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.12740664813752</v>
+        <v>14.35910442111555</v>
       </c>
       <c r="C8">
-        <v>7.599947776241186</v>
+        <v>7.918334883838984</v>
       </c>
       <c r="D8">
-        <v>6.850328716171132</v>
+        <v>6.859260530042372</v>
       </c>
       <c r="E8">
-        <v>7.161738058145181</v>
+        <v>6.985402582076439</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>39.11546627608433</v>
+        <v>36.23917476443545</v>
       </c>
       <c r="H8">
-        <v>2.709483961482308</v>
+        <v>2.560503586211551</v>
       </c>
       <c r="I8">
-        <v>3.606036022869224</v>
+        <v>3.427045748875288</v>
       </c>
       <c r="J8">
-        <v>12.74811512803317</v>
+        <v>12.13526416785314</v>
       </c>
       <c r="K8">
-        <v>20.73243229133464</v>
+        <v>19.23836816406141</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.46546542402177</v>
       </c>
       <c r="M8">
-        <v>12.26111488489226</v>
+        <v>13.10279694961834</v>
       </c>
       <c r="N8">
-        <v>7.287795164012703</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.1200981131548</v>
       </c>
       <c r="P8">
-        <v>14.40723755718047</v>
+        <v>7.433522710028304</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.94058387910974</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.32219588935151</v>
+        <v>16.40223016334679</v>
       </c>
       <c r="C9">
-        <v>8.722716772692443</v>
+        <v>9.213061170269823</v>
       </c>
       <c r="D9">
-        <v>7.964009862223671</v>
+        <v>7.969857890299919</v>
       </c>
       <c r="E9">
-        <v>7.851491975134432</v>
+        <v>7.5924194905411</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>42.14437718712167</v>
+        <v>38.58862383342447</v>
       </c>
       <c r="H9">
-        <v>2.148901443378123</v>
+        <v>2.052700324311895</v>
       </c>
       <c r="I9">
-        <v>3.125538027050304</v>
+        <v>3.009020110366469</v>
       </c>
       <c r="J9">
-        <v>13.14865977750312</v>
+        <v>12.46682830593081</v>
       </c>
       <c r="K9">
-        <v>21.5061740189456</v>
+        <v>19.71501311209981</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.50864409829576</v>
       </c>
       <c r="M9">
-        <v>14.16688810397624</v>
+        <v>13.7998486203704</v>
       </c>
       <c r="N9">
-        <v>8.015822570227849</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.95707219651945</v>
       </c>
       <c r="P9">
-        <v>14.14799932482562</v>
+        <v>8.146807570535328</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.62293388366795</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.69816368878096</v>
+        <v>17.65714858121488</v>
       </c>
       <c r="C10">
-        <v>9.535186417150955</v>
+        <v>10.08168081060101</v>
       </c>
       <c r="D10">
-        <v>8.702803788117111</v>
+        <v>8.705315822978619</v>
       </c>
       <c r="E10">
-        <v>8.171691345923156</v>
+        <v>7.873757147985502</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.96616104619759</v>
+        <v>40.3510532288099</v>
       </c>
       <c r="H10">
-        <v>1.795135405405176</v>
+        <v>1.738887400057762</v>
       </c>
       <c r="I10">
-        <v>2.80880609672912</v>
+        <v>2.740441385153764</v>
       </c>
       <c r="J10">
-        <v>13.38357038627084</v>
+        <v>12.38081651553385</v>
       </c>
       <c r="K10">
-        <v>21.92850264610434</v>
+        <v>19.87523743763981</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.38035150604823</v>
       </c>
       <c r="M10">
-        <v>15.39380321743906</v>
+        <v>14.22559702838881</v>
       </c>
       <c r="N10">
-        <v>8.377390663503482</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.10631887339278</v>
       </c>
       <c r="P10">
-        <v>13.92291582473183</v>
+        <v>8.493903565924036</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.34904364141098</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.68129902844204</v>
+        <v>17.62809067451698</v>
       </c>
       <c r="C11">
-        <v>10.23335505507336</v>
+        <v>10.67405521948141</v>
       </c>
       <c r="D11">
-        <v>9.016011924345154</v>
+        <v>9.017164358829652</v>
       </c>
       <c r="E11">
-        <v>7.178943476368997</v>
+        <v>6.943028020895428</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>42.12794217019291</v>
+        <v>39.42899794645614</v>
       </c>
       <c r="H11">
-        <v>2.791043203508466</v>
+        <v>2.76358409471338</v>
       </c>
       <c r="I11">
-        <v>2.752083541818469</v>
+        <v>2.702919055869685</v>
       </c>
       <c r="J11">
-        <v>12.95026995192348</v>
+        <v>11.4657399535143</v>
       </c>
       <c r="K11">
-        <v>20.9748714882986</v>
+        <v>18.88722378485192</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.54829296329534</v>
       </c>
       <c r="M11">
-        <v>15.6759904645358</v>
+        <v>13.59004551130748</v>
       </c>
       <c r="N11">
-        <v>7.388037803335289</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.32220693644859</v>
       </c>
       <c r="P11">
-        <v>13.53163211503278</v>
+        <v>7.486751895671424</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.0161861598337</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.40415675199599</v>
+        <v>17.38040317430245</v>
       </c>
       <c r="C12">
-        <v>10.64276326424737</v>
+        <v>11.00643566658783</v>
       </c>
       <c r="D12">
-        <v>9.129878019280522</v>
+        <v>9.130839653271778</v>
       </c>
       <c r="E12">
-        <v>6.518601821605595</v>
+        <v>6.340229168524428</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>40.25770587773309</v>
+        <v>38.12049582976974</v>
       </c>
       <c r="H12">
-        <v>4.175817869362723</v>
+        <v>4.157859813617755</v>
       </c>
       <c r="I12">
-        <v>2.747509695588673</v>
+        <v>2.700250670229665</v>
       </c>
       <c r="J12">
-        <v>12.54893603924426</v>
+        <v>10.91214791076861</v>
       </c>
       <c r="K12">
-        <v>20.12210260977793</v>
+        <v>18.10643648430086</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.95017234835515</v>
       </c>
       <c r="M12">
-        <v>15.67067946017085</v>
+        <v>13.01803891820097</v>
       </c>
       <c r="N12">
-        <v>6.515372351635447</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.29690064001788</v>
       </c>
       <c r="P12">
-        <v>13.28370225737903</v>
+        <v>6.605208450479388</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.83925040743583</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.87687257289007</v>
+        <v>16.92896952207564</v>
       </c>
       <c r="C13">
-        <v>10.8872966973174</v>
+        <v>11.21402434815061</v>
       </c>
       <c r="D13">
-        <v>9.100612323670365</v>
+        <v>9.102478715260718</v>
       </c>
       <c r="E13">
-        <v>6.124535086445676</v>
+        <v>6.008890051787741</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.1161979122919</v>
+        <v>36.15772640509373</v>
       </c>
       <c r="H13">
-        <v>5.605913413794753</v>
+        <v>5.589238887230899</v>
       </c>
       <c r="I13">
-        <v>2.798571505051709</v>
+        <v>2.741502500886476</v>
       </c>
       <c r="J13">
-        <v>12.12552738524351</v>
+        <v>10.6544439372546</v>
       </c>
       <c r="K13">
-        <v>19.2469122192579</v>
+        <v>17.41811476536378</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.46909102689351</v>
       </c>
       <c r="M13">
-        <v>15.4372022145446</v>
+        <v>12.45110131217565</v>
       </c>
       <c r="N13">
-        <v>5.686843341907548</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.09218953477995</v>
       </c>
       <c r="P13">
-        <v>13.12057821917072</v>
+        <v>5.776328142554764</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.75854545757998</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.3821309829865</v>
+        <v>16.50902503351697</v>
       </c>
       <c r="C14">
-        <v>10.99286586141002</v>
+        <v>11.31113618759966</v>
       </c>
       <c r="D14">
-        <v>9.015089554440122</v>
+        <v>9.018053465001367</v>
       </c>
       <c r="E14">
-        <v>6.040462992673041</v>
+        <v>5.974198404020014</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36.46189629036245</v>
+        <v>34.46788987812248</v>
       </c>
       <c r="H14">
-        <v>6.619670051472891</v>
+        <v>6.602074651891926</v>
       </c>
       <c r="I14">
-        <v>2.862287613653044</v>
+        <v>2.793738289280494</v>
       </c>
       <c r="J14">
-        <v>11.81607552966629</v>
+        <v>10.58715405314892</v>
       </c>
       <c r="K14">
-        <v>18.61927915286536</v>
+        <v>16.96935828401023</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.17437410448379</v>
       </c>
       <c r="M14">
-        <v>15.16620632734879</v>
+        <v>12.05277643397459</v>
       </c>
       <c r="N14">
-        <v>5.151753390147784</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.86321814445655</v>
       </c>
       <c r="P14">
-        <v>13.04750654797544</v>
+        <v>5.244520996034201</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.74283814570018</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.20035836620853</v>
+        <v>16.35499064619806</v>
       </c>
       <c r="C15">
-        <v>10.98917395352014</v>
+        <v>11.31326598411772</v>
       </c>
       <c r="D15">
-        <v>8.963321887704158</v>
+        <v>8.966773487514702</v>
       </c>
       <c r="E15">
-        <v>6.039815382619508</v>
+        <v>5.987874968766717</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>35.97937300699857</v>
+        <v>33.91078105349419</v>
       </c>
       <c r="H15">
-        <v>6.856706850597699</v>
+        <v>6.838133233140713</v>
       </c>
       <c r="I15">
-        <v>2.894882286033977</v>
+        <v>2.821800117774477</v>
       </c>
       <c r="J15">
-        <v>11.73249705797825</v>
+        <v>10.61593012285148</v>
       </c>
       <c r="K15">
-        <v>18.45298719785912</v>
+        <v>16.86739112524701</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.11497872322862</v>
       </c>
       <c r="M15">
-        <v>15.048510776223</v>
+        <v>11.95009945179804</v>
       </c>
       <c r="N15">
-        <v>5.027184560615453</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.76536027050793</v>
       </c>
       <c r="P15">
-        <v>13.04321041618484</v>
+        <v>5.12234636598233</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.75320336085554</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.69002697223268</v>
+        <v>15.92280667356222</v>
       </c>
       <c r="C16">
-        <v>10.63757303836923</v>
+        <v>11.02482641377521</v>
       </c>
       <c r="D16">
-        <v>8.665467878448869</v>
+        <v>8.67086367813712</v>
       </c>
       <c r="E16">
-        <v>5.947694088090633</v>
+        <v>5.912797807195992</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>35.50269980593411</v>
+        <v>32.89942734957204</v>
       </c>
       <c r="H16">
-        <v>6.669388290666962</v>
+        <v>6.642625466210363</v>
       </c>
       <c r="I16">
-        <v>3.024976772450073</v>
+        <v>2.929514193159681</v>
       </c>
       <c r="J16">
-        <v>11.70339684120086</v>
+        <v>11.03581392837865</v>
       </c>
       <c r="K16">
-        <v>18.42140156302083</v>
+        <v>17.00344360867779</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.28186361563291</v>
       </c>
       <c r="M16">
-        <v>14.57319256039612</v>
+        <v>11.9523584721286</v>
       </c>
       <c r="N16">
-        <v>5.006106626796654</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.37045873733123</v>
       </c>
       <c r="P16">
-        <v>13.16800102974316</v>
+        <v>5.116303166509423</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.88401359997672</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.56736929083951</v>
+        <v>15.81266110404512</v>
       </c>
       <c r="C17">
-        <v>10.30223655602696</v>
+        <v>10.72885747964655</v>
       </c>
       <c r="D17">
-        <v>8.479708600132009</v>
+        <v>8.485886629925492</v>
       </c>
       <c r="E17">
-        <v>5.88420907233828</v>
+        <v>5.828613456481842</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>36.04037961699541</v>
+        <v>33.13467542725776</v>
       </c>
       <c r="H17">
-        <v>5.95967489137791</v>
+        <v>5.925292946323604</v>
       </c>
       <c r="I17">
-        <v>3.091959343736902</v>
+        <v>2.986258807645004</v>
       </c>
       <c r="J17">
-        <v>11.84681314001524</v>
+        <v>11.3502955091629</v>
       </c>
       <c r="K17">
-        <v>18.73083340834532</v>
+        <v>17.33420301560421</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.56614680277765</v>
       </c>
       <c r="M17">
-        <v>14.35203386098746</v>
+        <v>12.15185526789387</v>
       </c>
       <c r="N17">
-        <v>5.2658587873928</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.17946060488642</v>
       </c>
       <c r="P17">
-        <v>13.30024506624595</v>
+        <v>5.384971181683963</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.99523335985199</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.78479515207819</v>
+        <v>15.9957429830352</v>
       </c>
       <c r="C18">
-        <v>9.93515911028015</v>
+        <v>10.40191383951982</v>
       </c>
       <c r="D18">
-        <v>8.373269963709907</v>
+        <v>8.379496504487992</v>
       </c>
       <c r="E18">
-        <v>6.035992311827308</v>
+        <v>5.922258917956591</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.55827709678422</v>
+        <v>34.3715371669231</v>
       </c>
       <c r="H18">
-        <v>4.74979901670745</v>
+        <v>4.705750849011949</v>
       </c>
       <c r="I18">
-        <v>3.099092565744917</v>
+        <v>2.990006722616612</v>
       </c>
       <c r="J18">
-        <v>12.16439151620269</v>
+        <v>11.70332257999011</v>
       </c>
       <c r="K18">
-        <v>19.39631355292611</v>
+        <v>17.92026676188378</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.02621731607544</v>
       </c>
       <c r="M18">
-        <v>14.33596132946992</v>
+        <v>12.5747204060497</v>
       </c>
       <c r="N18">
-        <v>5.860279768725393</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.16521516003029</v>
       </c>
       <c r="P18">
-        <v>13.47164103440721</v>
+        <v>5.98461227200225</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.11934391146431</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.22330064153791</v>
+        <v>16.37078741089074</v>
       </c>
       <c r="C19">
-        <v>9.607528375560614</v>
+        <v>10.11802163445246</v>
       </c>
       <c r="D19">
-        <v>8.339848851403374</v>
+        <v>8.34559228022367</v>
       </c>
       <c r="E19">
-        <v>6.603546530116779</v>
+        <v>6.413325797285688</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39.62575777023429</v>
+        <v>36.14660906900219</v>
       </c>
       <c r="H19">
-        <v>3.336684554036812</v>
+        <v>3.278617899671966</v>
       </c>
       <c r="I19">
-        <v>3.073471723581306</v>
+        <v>2.970408617443807</v>
       </c>
       <c r="J19">
-        <v>12.57813283039308</v>
+        <v>12.07839986180678</v>
       </c>
       <c r="K19">
-        <v>20.26147312911695</v>
+        <v>18.64430161893486</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.57692660156618</v>
       </c>
       <c r="M19">
-        <v>14.47872122962996</v>
+        <v>13.12419219682681</v>
       </c>
       <c r="N19">
-        <v>6.741617880582791</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.29261641628618</v>
       </c>
       <c r="P19">
-        <v>13.67258510761377</v>
+        <v>6.868202378674676</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.25487607592273</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.29412995111615</v>
+        <v>17.30194029663123</v>
       </c>
       <c r="C20">
-        <v>9.370407810925418</v>
+        <v>9.935755419571764</v>
       </c>
       <c r="D20">
-        <v>8.513641229654965</v>
+        <v>8.517376408558917</v>
       </c>
       <c r="E20">
-        <v>8.066314965344734</v>
+        <v>7.773875540974985</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.29087626773842</v>
+        <v>39.48121763384788</v>
       </c>
       <c r="H20">
-        <v>1.889828605675715</v>
+        <v>1.820782721522296</v>
       </c>
       <c r="I20">
-        <v>2.922486287646134</v>
+        <v>2.84467266617606</v>
       </c>
       <c r="J20">
-        <v>13.28035569571533</v>
+        <v>12.5310356084793</v>
       </c>
       <c r="K20">
-        <v>21.72527290221005</v>
+        <v>19.7915527013629</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.38336028381914</v>
       </c>
       <c r="M20">
-        <v>15.06594289277391</v>
+        <v>14.0787077601335</v>
       </c>
       <c r="N20">
-        <v>8.280404529900725</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.82025766609631</v>
       </c>
       <c r="P20">
-        <v>13.95740207891795</v>
+        <v>8.403878876277252</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.41297715332904</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.41857326741339</v>
+        <v>18.24395425677952</v>
       </c>
       <c r="C21">
-        <v>9.907404133937311</v>
+        <v>10.36392484359806</v>
       </c>
       <c r="D21">
-        <v>9.057384039920294</v>
+        <v>9.056817071027284</v>
       </c>
       <c r="E21">
-        <v>8.532966575413733</v>
+        <v>8.233783597990852</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.16885543488968</v>
+        <v>42.40906640449823</v>
       </c>
       <c r="H21">
-        <v>1.572228322342313</v>
+        <v>1.57634425478535</v>
       </c>
       <c r="I21">
-        <v>2.669303663837034</v>
+        <v>2.639548316876625</v>
       </c>
       <c r="J21">
-        <v>13.56531153013263</v>
+        <v>11.71140512292003</v>
       </c>
       <c r="K21">
-        <v>22.26638437975102</v>
+        <v>19.87484986678629</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.25645996302125</v>
       </c>
       <c r="M21">
-        <v>16.01038811028943</v>
+        <v>14.38579533638827</v>
       </c>
       <c r="N21">
-        <v>8.757626517029824</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.59580920353553</v>
       </c>
       <c r="P21">
-        <v>13.84379541716164</v>
+        <v>8.853982338736103</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.18883849403832</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.10775974982813</v>
+        <v>18.81621249022332</v>
       </c>
       <c r="C22">
-        <v>10.25200251513309</v>
+        <v>10.6286925123217</v>
       </c>
       <c r="D22">
-        <v>9.398847174087527</v>
+        <v>9.395239008275684</v>
       </c>
       <c r="E22">
-        <v>8.761747546192829</v>
+        <v>8.465499090138341</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.29906188635513</v>
+        <v>44.32858792125371</v>
       </c>
       <c r="H22">
-        <v>1.733690637092719</v>
+        <v>1.735031323649861</v>
       </c>
       <c r="I22">
-        <v>2.504844939310767</v>
+        <v>2.523652753150815</v>
       </c>
       <c r="J22">
-        <v>13.73716236150864</v>
+        <v>11.13425685351154</v>
       </c>
       <c r="K22">
-        <v>22.5879698490004</v>
+        <v>19.8897990654261</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.14463193986971</v>
       </c>
       <c r="M22">
-        <v>16.593089450699</v>
+        <v>14.56156221651412</v>
       </c>
       <c r="N22">
-        <v>8.990832268448743</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.06671110418725</v>
       </c>
       <c r="P22">
-        <v>13.76219745006009</v>
+        <v>9.069010481561795</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.03418374382691</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.76037701832856</v>
+        <v>18.54072679723322</v>
       </c>
       <c r="C23">
-        <v>10.05383310608065</v>
+        <v>10.49300586065944</v>
       </c>
       <c r="D23">
-        <v>9.217988049005633</v>
+        <v>9.216167051341719</v>
       </c>
       <c r="E23">
-        <v>8.646131799963927</v>
+        <v>8.342958966492027</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.76563850453493</v>
+        <v>43.21025314187937</v>
       </c>
       <c r="H23">
-        <v>1.636913813218065</v>
+        <v>1.65304263033933</v>
       </c>
       <c r="I23">
-        <v>2.576185706124666</v>
+        <v>2.556379687353501</v>
       </c>
       <c r="J23">
-        <v>13.65952328697589</v>
+        <v>11.56216203713411</v>
       </c>
       <c r="K23">
-        <v>22.44855454552507</v>
+        <v>19.94185356965352</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.24747957485759</v>
       </c>
       <c r="M23">
-        <v>16.2892682369656</v>
+        <v>14.51488471679576</v>
       </c>
       <c r="N23">
-        <v>8.866141517671771</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.83647190655746</v>
       </c>
       <c r="P23">
-        <v>13.81436858039899</v>
+        <v>8.956290087292329</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.13011288716769</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.35905421294475</v>
+        <v>17.36037813674341</v>
       </c>
       <c r="C24">
-        <v>9.306873264264459</v>
+        <v>9.875018312136552</v>
       </c>
       <c r="D24">
-        <v>8.505279844256089</v>
+        <v>8.508956511971205</v>
       </c>
       <c r="E24">
-        <v>8.185791191713127</v>
+        <v>7.887191975673353</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.60643982543746</v>
+        <v>39.75466613807765</v>
       </c>
       <c r="H24">
-        <v>1.867318322758788</v>
+        <v>1.798479525941947</v>
       </c>
       <c r="I24">
-        <v>2.900985642332785</v>
+        <v>2.820227894991819</v>
       </c>
       <c r="J24">
-        <v>13.34605309234859</v>
+        <v>12.59756755868069</v>
       </c>
       <c r="K24">
-        <v>21.86875900076985</v>
+        <v>19.91845794284454</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.4813288640091</v>
       </c>
       <c r="M24">
-        <v>15.08062196778525</v>
+        <v>14.17307687723884</v>
       </c>
       <c r="N24">
-        <v>8.380690058189511</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.83399499819943</v>
       </c>
       <c r="P24">
-        <v>13.9996913600775</v>
+        <v>8.50466378238988</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.44443763973881</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.72540206136389</v>
+        <v>15.85339843482897</v>
       </c>
       <c r="C25">
-        <v>8.455709190623462</v>
+        <v>8.917409143408776</v>
       </c>
       <c r="D25">
-        <v>7.676493231258544</v>
+        <v>7.683417526333382</v>
       </c>
       <c r="E25">
-        <v>7.661433910189521</v>
+        <v>7.422116286505412</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>41.22300144619333</v>
+        <v>37.75872174473579</v>
       </c>
       <c r="H25">
-        <v>2.298820857125467</v>
+        <v>2.187532751708805</v>
       </c>
       <c r="I25">
-        <v>3.268200647435481</v>
+        <v>3.136791572957694</v>
       </c>
       <c r="J25">
-        <v>13.01619193248132</v>
+        <v>12.42472138702205</v>
       </c>
       <c r="K25">
-        <v>21.24564167009803</v>
+        <v>19.55655161156469</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.47761236971386</v>
       </c>
       <c r="M25">
-        <v>13.66809606805101</v>
+        <v>13.57744321941228</v>
       </c>
       <c r="N25">
-        <v>7.826703772389791</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.48576521982567</v>
       </c>
       <c r="P25">
-        <v>14.20391397284183</v>
+        <v>7.962679586403529</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.70229350804063</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
